--- a/data/hotels_by_city/Houston/Houston_shard_366.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_366.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="397">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56707-d10588062-Reviews-Home2_Suites_by_Hilton_Houston_Stafford-Stafford_Texas.html</t>
   </si>
   <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Home2-Suites-By-Hilton-Houston-Stafford.h15703097.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,1071 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/11/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d10588062-r595052581-Home2_Suites_by_Hilton_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>56707</t>
+  </si>
+  <si>
+    <t>10588062</t>
+  </si>
+  <si>
+    <t>595052581</t>
+  </si>
+  <si>
+    <t>07/10/2018</t>
+  </si>
+  <si>
+    <t>very nice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I would highly recommend this Hilton facility to everyone.  We came for a staycation and to enjoy the pool it this hot weather.  It was very clean, comfortable and with nice helpful employees.  The pool was great. </t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d10588062-r592401721-Home2_Suites_by_Hilton_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>592401721</t>
+  </si>
+  <si>
+    <t>07/02/2018</t>
+  </si>
+  <si>
+    <t>Great Hotel in Stafford, TX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This was my first stay at Home2 Suites in Stafford, TX.  Hotel was very modern, clean and was very, very nice.  My room was very large with a nice kitchen.  I will definitely stay here again.  The nice gym and pool are also a big plus.  </t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d10588062-r591125485-Home2_Suites_by_Hilton_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>591125485</t>
+  </si>
+  <si>
+    <t>06/27/2018</t>
+  </si>
+  <si>
+    <t>Nice modern hotel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice new modern hotel! This is a nice facility in a great location. Once you get through the Houston traffic, you're set! There is a nice new shopping center right next door to the hotel with plenty of restaurants. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d10588062-r583102417-Home2_Suites_by_Hilton_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>583102417</t>
+  </si>
+  <si>
+    <t>05/27/2018</t>
+  </si>
+  <si>
+    <t>Great Hotel</t>
+  </si>
+  <si>
+    <t>I really like this brand and this particular hotel is great.  Friendly staff, quiet location and rooms.  Lots of restaurants and shopping nearby.  I would definitely stay here again and also in other cities.</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d10588062-r578096475-Home2_Suites_by_Hilton_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>578096475</t>
+  </si>
+  <si>
+    <t>05/05/2018</t>
+  </si>
+  <si>
+    <t>Great hotel!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hone2Suites is a great place to stay! The room is spacious and comfortable! Loved the convenience of having a little kitchenette space complete with utensils! Bed was very comfortable and breakfast was a delight! Loved the Texas shaped waffle maker! </t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d10588062-r574065526-Home2_Suites_by_Hilton_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>574065526</t>
+  </si>
+  <si>
+    <t>04/17/2018</t>
+  </si>
+  <si>
+    <t>Great location and staff</t>
+  </si>
+  <si>
+    <t>Staff very friendly and helpful. I love that they engage with the guest, they made sure our stay was great. The breakfast was delicious and they made sure people didn't just touch all over the food. I'll most definitely be back.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d10588062-r569189510-Home2_Suites_by_Hilton_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>569189510</t>
+  </si>
+  <si>
+    <t>03/27/2018</t>
+  </si>
+  <si>
+    <t>Beautiful room</t>
+  </si>
+  <si>
+    <t>Room was bright and beautiful. Enjoyed an expanded continental breakfast. Staff was friendly. Hotel was not large so breakfast area not overcrowded. Did not get to use outside seating but thought it was great to have an outdoor area not at a pool.</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d10588062-r569165263-Home2_Suites_by_Hilton_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>569165263</t>
+  </si>
+  <si>
+    <t>Beautiful property in the perfect location!</t>
+  </si>
+  <si>
+    <t>I travel to this area quite a bit and chose Home2 for my stay this time because of the reviews. I was not at all disappointed. This was one of the best hotels for the money that I've EVER stayed in. It was impeccably clean. I have NEVER seen a hotel this clean or trendy. We loved and used the kitchenette often for just a weekend trip! The location for this hotel was easy to get to, felt safe, and was located right in the middle of restaurants and activities. They have incredible outdoor seating areas in many areas of the hotel that are comfortable and relaxing. I will definitely be staying here the next time I go to Stafford.MoreShow less</t>
+  </si>
+  <si>
+    <t>I travel to this area quite a bit and chose Home2 for my stay this time because of the reviews. I was not at all disappointed. This was one of the best hotels for the money that I've EVER stayed in. It was impeccably clean. I have NEVER seen a hotel this clean or trendy. We loved and used the kitchenette often for just a weekend trip! The location for this hotel was easy to get to, felt safe, and was located right in the middle of restaurants and activities. They have incredible outdoor seating areas in many areas of the hotel that are comfortable and relaxing. I will definitely be staying here the next time I go to Stafford.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d10588062-r566733437-Home2_Suites_by_Hilton_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>566733437</t>
+  </si>
+  <si>
+    <t>03/15/2018</t>
+  </si>
+  <si>
+    <t>Pleasant stay</t>
+  </si>
+  <si>
+    <t>Very clean and spacious room.  The staff was very helpful.I requested to have my checkout time extended and she did not have a problem with it.  During, breakfast, since we got to the hotel late, we also went to the breakfast bar late.  The lady working there happily allowed us to get our food.Will definitely choose this brand on my business trips.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d10588062-r561959147-Home2_Suites_by_Hilton_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>561959147</t>
+  </si>
+  <si>
+    <t>02/21/2018</t>
+  </si>
+  <si>
+    <t>Cleanest hotel I've ever stayed in.</t>
+  </si>
+  <si>
+    <t>Lots of space, more kitchen than I needed, super clean!  Sheets were better than what I have at home.  I'm a neat freak and slight germophobe!  This place was great!  I even walked around barefoot which I never do at a hotel.  I will recommend to friends and family and seek out this hotel chain whenever I travel!</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d10588062-r555953385-Home2_Suites_by_Hilton_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>555953385</t>
+  </si>
+  <si>
+    <t>01/23/2018</t>
+  </si>
+  <si>
+    <t>Great weekend</t>
+  </si>
+  <si>
+    <t>This property is new and exceptionally well designed.  The room was well appointed with outstanding attention to functionality. Housekeeping is meticulous and the breakfast selections well above that expected.  Will definitely stay again.</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d10588062-r555562635-Home2_Suites_by_Hilton_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>555562635</t>
+  </si>
+  <si>
+    <t>01/22/2018</t>
+  </si>
+  <si>
+    <t>First Stay in this brand Hotel</t>
+  </si>
+  <si>
+    <t>I chose this hotel for the price and location, and was not disappointed.  It is located next door to an AMC movie theatre and several restaurants were close by, as well as a shopping center.  Our concert was rescheduled so we ended up having to stay an extra day, and the front desk was very helpful and professional in getting our stay extended.  This is a "green" hotel, so there is only one trash bag in each room, and the shampoo and shower gel are in a dispenser on the wall instead of tiny bottles.  They give out healthier green apples instead of chocolate chip cookies!  The free breakfast bar closes promptly at 9:00 am so don't sleep in...MoreShow less</t>
+  </si>
+  <si>
+    <t>I chose this hotel for the price and location, and was not disappointed.  It is located next door to an AMC movie theatre and several restaurants were close by, as well as a shopping center.  Our concert was rescheduled so we ended up having to stay an extra day, and the front desk was very helpful and professional in getting our stay extended.  This is a "green" hotel, so there is only one trash bag in each room, and the shampoo and shower gel are in a dispenser on the wall instead of tiny bottles.  They give out healthier green apples instead of chocolate chip cookies!  The free breakfast bar closes promptly at 9:00 am so don't sleep in...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d10588062-r543945073-Home2_Suites_by_Hilton_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>543945073</t>
+  </si>
+  <si>
+    <t>11/28/2017</t>
+  </si>
+  <si>
+    <t>Excellent!!</t>
+  </si>
+  <si>
+    <t>I have been several hotels in Houston. This hotel is the best. The room was super clean and nice. Kitchen was also clean and easy to use. Breakfast was absolutely awesome. I definitely recommend this hotel to all of my friends and family.</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d10588062-r540178298-Home2_Suites_by_Hilton_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>540178298</t>
+  </si>
+  <si>
+    <t>11/11/2017</t>
+  </si>
+  <si>
+    <t>Home2Suites Clean Hotel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Home2Suites is a very clean hotel with lots of amenities. Room are large and have full size fridge and dishwasher. Makes it nice for long stays and for folks with families. I would recommend this chain i have stayed in this chain twice and both times very pleased. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d10588062-r540089870-Home2_Suites_by_Hilton_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>540089870</t>
+  </si>
+  <si>
+    <t>11/10/2017</t>
+  </si>
+  <si>
+    <t>Very satisfied! Highly recommended</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very satisfied. We stayed at the Stafford, Texas location and the staff was very friendly. The rooms were very spacious and clean. This is a great place for kids or couples. We will definetly be staying here in the future. Highly recommended! </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d10588062-r533762881-Home2_Suites_by_Hilton_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>533762881</t>
+  </si>
+  <si>
+    <t>10/17/2017</t>
+  </si>
+  <si>
+    <t>Thank you</t>
+  </si>
+  <si>
+    <t>Enjoyed our stay, amenities provided with convenience and breakfast included were a plus. Location convenient to entertainment and dinning with or without a car.  We would stay again and have passed this hotel name to others already.</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d10588062-r533411973-Home2_Suites_by_Hilton_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>533411973</t>
+  </si>
+  <si>
+    <t>10/15/2017</t>
+  </si>
+  <si>
+    <t>Modern, Clean &amp; Accomodating</t>
+  </si>
+  <si>
+    <t>Great stay, overall.  The staff was friendly, the complimentary breakfast was an 8 out of 10, and the room was clean, quiet, and very comfortable.  If I were to travel to Houston, again, I'd definitely stay here again!</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d10588062-r530370704-Home2_Suites_by_Hilton_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>530370704</t>
+  </si>
+  <si>
+    <t>10/05/2017</t>
+  </si>
+  <si>
+    <t>Very nice rooms</t>
+  </si>
+  <si>
+    <t>Very well located, food options within walking distance. Stayed here for three nights, arrived on a late night on Sunday and was assigned a handicap room on 1st floor. Requested a change but there were no other rooms available. Room is very good size and AC unit was so efficient and silent you barely hear it. Everything looks new in this hotel. Breakfast is free but I really didn't like the options, hot options are offered but consist on frozen items that you have to microwave yourself, other than that the say was awesome.</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d10588062-r524536310-Home2_Suites_by_Hilton_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>524536310</t>
+  </si>
+  <si>
+    <t>09/14/2017</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>If ever you're in need of a long term stay away from home, Home2 is a great place to call home temporarily! The staff if courteous and pleasant and always willing to go the extra mile o meet your needs</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d10588062-r522486092-Home2_Suites_by_Hilton_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>522486092</t>
+  </si>
+  <si>
+    <t>09/07/2017</t>
+  </si>
+  <si>
+    <t>Best value ever</t>
+  </si>
+  <si>
+    <t>Wonderful, comfortable, modern hotel with superb staff and amenities.  I would stay at this facility in any city to which I travel.  Especially good if you preserve a fit, healthy lifestyle - full kitchen in each suite and well-thought out fitness center makes it easy.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d10588062-r520387008-Home2_Suites_by_Hilton_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>520387008</t>
+  </si>
+  <si>
+    <t>09/01/2017</t>
+  </si>
+  <si>
+    <t>Just Rude!</t>
+  </si>
+  <si>
+    <t>I don't even know where to start. The first day of my stay was good. We did not really have any problems at first. So our stay was during Hurricane Harvey. My wedding was that Saturday in the area. I also had 5 other couples staying in the same hotel as well the same weekend. Everyone was supposed to go home on that Sunday but we were not able to make it home due to flooding. We were safe, but that was about it. The manager was rude the whole time and not very accommodating to me and my guest. She even went as far to tell one of my guest that she should have never came here if she knew a hurricane was coming. First of all she came earlier in the week and was from out of town. She had no idea that Harvey was going to cause that much damage. Did she really think I wanted to have my wedding during a hurricane???? We ended up and most of my guest staying an extra 2 nights. (not by choice) There was not a break in the price nor no break in her bad attitude. In the mornings not knowing what outside looked like or if we could get back to our homes she would ask, "I need to know if yall leaving, I have other people that need to get a room". There was no sympathy for...I don't even know where to start. The first day of my stay was good. We did not really have any problems at first. So our stay was during Hurricane Harvey. My wedding was that Saturday in the area. I also had 5 other couples staying in the same hotel as well the same weekend. Everyone was supposed to go home on that Sunday but we were not able to make it home due to flooding. We were safe, but that was about it. The manager was rude the whole time and not very accommodating to me and my guest. She even went as far to tell one of my guest that she should have never came here if she knew a hurricane was coming. First of all she came earlier in the week and was from out of town. She had no idea that Harvey was going to cause that much damage. Did she really think I wanted to have my wedding during a hurricane???? We ended up and most of my guest staying an extra 2 nights. (not by choice) There was not a break in the price nor no break in her bad attitude. In the mornings not knowing what outside looked like or if we could get back to our homes she would ask, "I need to know if yall leaving, I have other people that need to get a room". There was no sympathy for our situation. The hotel was nice just not the people.MoreShow less</t>
+  </si>
+  <si>
+    <t>I don't even know where to start. The first day of my stay was good. We did not really have any problems at first. So our stay was during Hurricane Harvey. My wedding was that Saturday in the area. I also had 5 other couples staying in the same hotel as well the same weekend. Everyone was supposed to go home on that Sunday but we were not able to make it home due to flooding. We were safe, but that was about it. The manager was rude the whole time and not very accommodating to me and my guest. She even went as far to tell one of my guest that she should have never came here if she knew a hurricane was coming. First of all she came earlier in the week and was from out of town. She had no idea that Harvey was going to cause that much damage. Did she really think I wanted to have my wedding during a hurricane???? We ended up and most of my guest staying an extra 2 nights. (not by choice) There was not a break in the price nor no break in her bad attitude. In the mornings not knowing what outside looked like or if we could get back to our homes she would ask, "I need to know if yall leaving, I have other people that need to get a room". There was no sympathy for...I don't even know where to start. The first day of my stay was good. We did not really have any problems at first. So our stay was during Hurricane Harvey. My wedding was that Saturday in the area. I also had 5 other couples staying in the same hotel as well the same weekend. Everyone was supposed to go home on that Sunday but we were not able to make it home due to flooding. We were safe, but that was about it. The manager was rude the whole time and not very accommodating to me and my guest. She even went as far to tell one of my guest that she should have never came here if she knew a hurricane was coming. First of all she came earlier in the week and was from out of town. She had no idea that Harvey was going to cause that much damage. Did she really think I wanted to have my wedding during a hurricane???? We ended up and most of my guest staying an extra 2 nights. (not by choice) There was not a break in the price nor no break in her bad attitude. In the mornings not knowing what outside looked like or if we could get back to our homes she would ask, "I need to know if yall leaving, I have other people that need to get a room". There was no sympathy for our situation. The hotel was nice just not the people.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d10588062-r515278879-Home2_Suites_by_Hilton_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>515278879</t>
+  </si>
+  <si>
+    <t>08/19/2017</t>
+  </si>
+  <si>
+    <t>Great place, but slightly confusing concept.</t>
+  </si>
+  <si>
+    <t>We travel to the area to visit an aging relative and normally stay at the, closer, Hilton Garden Inn, which is quite nice. This trip, the difference in room rates was large enough to get our attention and to make up for the extra mile-or-two drive.
+Knew it was a newer Hilton concept, but it was a little fuzzy to us. Turns out it's sort of an eco-friendly extended stay hotel.
+First impressions: the lobby sets a modern community theme, with the small breakfast area with a communal table, and more comfy banquette tables taking up the space. It was an evening check-in and a little slow as the person before us seemed to have lots of questions, but the front desk personnel was friendly and efficient.
+Our room was spotless and comfortable, but the layout was a little odd. There's a partial kitchen - apartment sized fridge, sink, dishwasher, micro and some plates/cups/silverware, and other kitchen basics, but no stovetop or oven. Oh, the sign on the micro says you can check out an induction cooktop and cookware from the front desk, free of charge. Hmm. Other signs on the bathroom mirror fill us in the various level of housekeeping services, and more cards over the desk reveal other details, such as the $125 per stay fee for pets, with disclaimers. There's decent storage, lighting, and the tv is fine, but what the heck is that 2nd desk area...We travel to the area to visit an aging relative and normally stay at the, closer, Hilton Garden Inn, which is quite nice. This trip, the difference in room rates was large enough to get our attention and to make up for the extra mile-or-two drive.Knew it was a newer Hilton concept, but it was a little fuzzy to us. Turns out it's sort of an eco-friendly extended stay hotel.First impressions: the lobby sets a modern community theme, with the small breakfast area with a communal table, and more comfy banquette tables taking up the space. It was an evening check-in and a little slow as the person before us seemed to have lots of questions, but the front desk personnel was friendly and efficient.Our room was spotless and comfortable, but the layout was a little odd. There's a partial kitchen - apartment sized fridge, sink, dishwasher, micro and some plates/cups/silverware, and other kitchen basics, but no stovetop or oven. Oh, the sign on the micro says you can check out an induction cooktop and cookware from the front desk, free of charge. Hmm. Other signs on the bathroom mirror fill us in the various level of housekeeping services, and more cards over the desk reveal other details, such as the $125 per stay fee for pets, with disclaimers. There's decent storage, lighting, and the tv is fine, but what the heck is that 2nd desk area for? There's no chairs and it cuts off some of the area for the small wall unit closet. But, the beds are great, although a couple of extra pillows would help, the blinds block out light admirably, and there's plenty of hot water. Breakfast the next morning is a little confusing. First, the serving area is pretty small with a single counter that's flanked by the common dining table. You'll find the usual items, but the hot items are a little confusing. Kept in sealed packets in a fridge, the contain merely a number (plus calorie count) that we figured out should be hit on the micro, but...hey are we supposed to keep the pouch as is, open it up, remove it...Where are those signs now? Well, they're actually on all of the lower drawers, and indicate locations for real plates, tableware, glasses, etc. And the small, single line can quickly get busy. The employee managing the line was constantly replenishing items and was also friendly and welcoming.We couldn't check out the pool on this check over-night trip, but the pool looked just fine (like the sunshield covers), the fitness center is small, but adequate, and there is definitely some outdoor space for cooler evenings. So, a nice little option for people visiting the southwest area of Houston. Only complaint, hey, I'm a late Baby Boomer, is "does the concept really have to be so difficult that there need be signs with direction all around. Overall, thisMoreShow less</t>
+  </si>
+  <si>
+    <t>We travel to the area to visit an aging relative and normally stay at the, closer, Hilton Garden Inn, which is quite nice. This trip, the difference in room rates was large enough to get our attention and to make up for the extra mile-or-two drive.
+Knew it was a newer Hilton concept, but it was a little fuzzy to us. Turns out it's sort of an eco-friendly extended stay hotel.
+First impressions: the lobby sets a modern community theme, with the small breakfast area with a communal table, and more comfy banquette tables taking up the space. It was an evening check-in and a little slow as the person before us seemed to have lots of questions, but the front desk personnel was friendly and efficient.
+Our room was spotless and comfortable, but the layout was a little odd. There's a partial kitchen - apartment sized fridge, sink, dishwasher, micro and some plates/cups/silverware, and other kitchen basics, but no stovetop or oven. Oh, the sign on the micro says you can check out an induction cooktop and cookware from the front desk, free of charge. Hmm. Other signs on the bathroom mirror fill us in the various level of housekeeping services, and more cards over the desk reveal other details, such as the $125 per stay fee for pets, with disclaimers. There's decent storage, lighting, and the tv is fine, but what the heck is that 2nd desk area...We travel to the area to visit an aging relative and normally stay at the, closer, Hilton Garden Inn, which is quite nice. This trip, the difference in room rates was large enough to get our attention and to make up for the extra mile-or-two drive.Knew it was a newer Hilton concept, but it was a little fuzzy to us. Turns out it's sort of an eco-friendly extended stay hotel.First impressions: the lobby sets a modern community theme, with the small breakfast area with a communal table, and more comfy banquette tables taking up the space. It was an evening check-in and a little slow as the person before us seemed to have lots of questions, but the front desk personnel was friendly and efficient.Our room was spotless and comfortable, but the layout was a little odd. There's a partial kitchen - apartment sized fridge, sink, dishwasher, micro and some plates/cups/silverware, and other kitchen basics, but no stovetop or oven. Oh, the sign on the micro says you can check out an induction cooktop and cookware from the front desk, free of charge. Hmm. Other signs on the bathroom mirror fill us in the various level of housekeeping services, and more cards over the desk reveal other details, such as the $125 per stay fee for pets, with disclaimers. There's decent storage, lighting, and the tv is fine, but what the heck is that 2nd desk area for? There's no chairs and it cuts off some of the area for the small wall unit closet. But, the beds are great, although a couple of extra pillows would help, the blinds block out light admirably, and there's plenty of hot water. Breakfast the next morning is a little confusing. First, the serving area is pretty small with a single counter that's flanked by the common dining table. You'll find the usual items, but the hot items are a little confusing. Kept in sealed packets in a fridge, the contain merely a number (plus calorie count) that we figured out should be hit on the micro, but...hey are we supposed to keep the pouch as is, open it up, remove it...Where are those signs now? Well, they're actually on all of the lower drawers, and indicate locations for real plates, tableware, glasses, etc. And the small, single line can quickly get busy. The employee managing the line was constantly replenishing items and was also friendly and welcoming.We couldn't check out the pool on this check over-night trip, but the pool looked just fine (like the sunshield covers), the fitness center is small, but adequate, and there is definitely some outdoor space for cooler evenings. So, a nice little option for people visiting the southwest area of Houston. Only complaint, hey, I'm a late Baby Boomer, is "does the concept really have to be so difficult that there need be signs with direction all around. Overall, thisMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d10588062-r514620699-Home2_Suites_by_Hilton_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>514620699</t>
+  </si>
+  <si>
+    <t>08/17/2017</t>
+  </si>
+  <si>
+    <t>Weekend Stay</t>
+  </si>
+  <si>
+    <t>I had a great stay, and I would return. The rooms were clean, fresh and modern. The complementary breakfast was good. The room rates are reasonable for the high quality of service and staff. the pool , though small was clean and great for kids. its under 5 feet in dept.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d10588062-r511145726-Home2_Suites_by_Hilton_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>511145726</t>
+  </si>
+  <si>
+    <t>08/10/2017</t>
+  </si>
+  <si>
+    <t>Amazing hotel</t>
+  </si>
+  <si>
+    <t>This place is amazing. Everything is so clean. The staff is friendly and extremely professional. The rooms are great.  This is definitely a place in would visit again. The front area is beautiful and offers a great place to sit or hang out. Its probably amazing when its not so hot outside. I can really say this is a good home away from home</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d10588062-r502969134-Home2_Suites_by_Hilton_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>502969134</t>
+  </si>
+  <si>
+    <t>07/17/2017</t>
+  </si>
+  <si>
+    <t>Love this hotel!</t>
+  </si>
+  <si>
+    <t>Everything about this hotel is marvelous, accommodations, staff,amenities, location... had a wonderful experience! The front desk staff were excellent, very helpful, always accessible, they went above and beyond!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d10588062-r494733066-Home2_Suites_by_Hilton_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>494733066</t>
+  </si>
+  <si>
+    <t>06/20/2017</t>
+  </si>
+  <si>
+    <t>Excellent Hotel</t>
+  </si>
+  <si>
+    <t>The best place we have ever stayed.  Everyone was very friendly and happy.  The room was very clean and comfortable and in working order.  The value was great and better than other hotels we have chosen in the past.  We will be back.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>Sonya D, General Manager at Home2 Suites by Hilton Houston Stafford, responded to this reviewResponded June 30, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 30, 2017</t>
+  </si>
+  <si>
+    <t>The best place we have ever stayed.  Everyone was very friendly and happy.  The room was very clean and comfortable and in working order.  The value was great and better than other hotels we have chosen in the past.  We will be back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d10588062-r492216735-Home2_Suites_by_Hilton_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>492216735</t>
+  </si>
+  <si>
+    <t>06/11/2017</t>
+  </si>
+  <si>
+    <t>Great place to stay</t>
+  </si>
+  <si>
+    <t>Staff was very nice.  Clean facility.  Digital keys via phone was a fun feature.  Didn't work with fitness center yet, but they are still working on it.  A number of places to eat are very close as well.  Use the exit before if coming from houston.  Movie theater close by.  MoreShow less</t>
+  </si>
+  <si>
+    <t>Staff was very nice.  Clean facility.  Digital keys via phone was a fun feature.  Didn't work with fitness center yet, but they are still working on it.  A number of places to eat are very close as well.  Use the exit before if coming from houston.  Movie theater close by.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d10588062-r489272302-Home2_Suites_by_Hilton_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>489272302</t>
+  </si>
+  <si>
+    <t>05/30/2017</t>
+  </si>
+  <si>
+    <t>Most accomodating hotel experience - EVER</t>
+  </si>
+  <si>
+    <t>I highly recommend this hotel.  Top of the line quality of service received from staff is exceptionally rare. Friendly, knowledgeable staff - over the top pleasing and engaging.  I don't have 200 words to say how impressed I am with the quality of fabulous service.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Sonya D, General Manager at Home2 Suites by Hilton Houston Stafford, responded to this reviewResponded June 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 4, 2017</t>
+  </si>
+  <si>
+    <t>I highly recommend this hotel.  Top of the line quality of service received from staff is exceptionally rare. Friendly, knowledgeable staff - over the top pleasing and engaging.  I don't have 200 words to say how impressed I am with the quality of fabulous service.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d10588062-r487857031-Home2_Suites_by_Hilton_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>487857031</t>
+  </si>
+  <si>
+    <t>05/25/2017</t>
+  </si>
+  <si>
+    <t>retired</t>
+  </si>
+  <si>
+    <t>happy when I  stayed there  and , nice and clean, free coin laundry, staff is friendly and very helpful. I will be back and refer my family, friend will come in the future cost is affordable, near shopping center, restaurants and easy access to free way.MoreShow less</t>
+  </si>
+  <si>
+    <t>happy when I  stayed there  and , nice and clean, free coin laundry, staff is friendly and very helpful. I will be back and refer my family, friend will come in the future cost is affordable, near shopping center, restaurants and easy access to free way.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d10588062-r487214684-Home2_Suites_by_Hilton_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>487214684</t>
+  </si>
+  <si>
+    <t>05/23/2017</t>
+  </si>
+  <si>
+    <t>Excellent stay at newer hotel</t>
+  </si>
+  <si>
+    <t>Enjoyed a brief stay at this hotel.  All of the employees we spoke with were very friendly. and the folks at the front desk were very accommodating. I used the HHonors app to select my room and opted for the digital key.  A small issue with the key but it didn't impact our stay.  The room was spacious and still had that new hotel smell to it. The bed is extremely comfortable and made for great sleeping.  Never heard our neighbors which is always nice. Other than grabbing an occasional coffee, I can't speak about the breakfast. I would not hesitate to stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Enjoyed a brief stay at this hotel.  All of the employees we spoke with were very friendly. and the folks at the front desk were very accommodating. I used the HHonors app to select my room and opted for the digital key.  A small issue with the key but it didn't impact our stay.  The room was spacious and still had that new hotel smell to it. The bed is extremely comfortable and made for great sleeping.  Never heard our neighbors which is always nice. Other than grabbing an occasional coffee, I can't speak about the breakfast. I would not hesitate to stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d10588062-r482249571-Home2_Suites_by_Hilton_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>482249571</t>
+  </si>
+  <si>
+    <t>05/06/2017</t>
+  </si>
+  <si>
+    <t>FEZANA AGM</t>
+  </si>
+  <si>
+    <t>Convenient location. Good, clean room and very good and efficient service at breakfast which was at a reasonable time. Would use this chain of hotels again on business and private trips.  Good value for a Hilton.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>Sonya D, General Manager at Home2 Suites by Hilton Houston Stafford, responded to this reviewResponded May 16, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 16, 2017</t>
+  </si>
+  <si>
+    <t>Convenient location. Good, clean room and very good and efficient service at breakfast which was at a reasonable time. Would use this chain of hotels again on business and private trips.  Good value for a Hilton.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d10588062-r481140658-Home2_Suites_by_Hilton_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>481140658</t>
+  </si>
+  <si>
+    <t>05/02/2017</t>
+  </si>
+  <si>
+    <t>Basic long stay hotel</t>
+  </si>
+  <si>
+    <t>Good simple hotel. Nothing out of the ordinary. Rooms are well designed. Breakfast is very average. Staff is very indifferent. There was a crowd outside most nights and the cops had to show up often. The breakfast bar closed too early even on weekends. The beds were a bit too soft for my comfort.MoreShow less</t>
+  </si>
+  <si>
+    <t>Good simple hotel. Nothing out of the ordinary. Rooms are well designed. Breakfast is very average. Staff is very indifferent. There was a crowd outside most nights and the cops had to show up often. The breakfast bar closed too early even on weekends. The beds were a bit too soft for my comfort.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d10588062-r478634512-Home2_Suites_by_Hilton_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>478634512</t>
+  </si>
+  <si>
+    <t>04/24/2017</t>
+  </si>
+  <si>
+    <t>Worst Hilton Hotel so far</t>
+  </si>
+  <si>
+    <t>The pool was dirty. Bug on hotel bed. Restroom doors don't close properly. Needed 4 tries to make my room key work. I had to bring keys back to counter every time.Staff is Herz friendly but value was not there to me.MoreShow less</t>
+  </si>
+  <si>
+    <t>Sonya D, General Manager at Home2 Suites by Hilton Houston Stafford, responded to this reviewResponded May 2, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 2, 2017</t>
+  </si>
+  <si>
+    <t>The pool was dirty. Bug on hotel bed. Restroom doors don't close properly. Needed 4 tries to make my room key work. I had to bring keys back to counter every time.Staff is Herz friendly but value was not there to me.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d10588062-r471012490-Home2_Suites_by_Hilton_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>471012490</t>
+  </si>
+  <si>
+    <t>03/28/2017</t>
+  </si>
+  <si>
+    <t>Bedding is fabulous!</t>
+  </si>
+  <si>
+    <t>The bedding at this hotel is GREAT! I didn't want to get out of bed. The whole experience was fantastic from the lobby to the room to the check out process. The location is great too, with eating establishments within walking distance.</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d10588062-r469966276-Home2_Suites_by_Hilton_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>469966276</t>
+  </si>
+  <si>
+    <t>03/24/2017</t>
+  </si>
+  <si>
+    <t>Business Stay</t>
+  </si>
+  <si>
+    <t>Wish I could have stayed more than one night here.  Large, clean rooms and friendly service from the staff.  The breakfast area was well maintained and had a good variety of food options.  There's dining/shopping nearby and it was easy to get to other areas of town as well.</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d10588062-r469293204-Home2_Suites_by_Hilton_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>469293204</t>
+  </si>
+  <si>
+    <t>03/21/2017</t>
+  </si>
+  <si>
+    <t>Luxury Hotel</t>
+  </si>
+  <si>
+    <t>My stay at the Home  Suites by Hilton made me feel at home!  Hotel room was clean and staff was very professional.  Breakfast in the morning had a variety of food.  Rooms are large and had all the accommodations.  Refrig./microwave/stove/dishwasher.  Everything you need to make a stay comfortable.  Just like Home!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d10588062-r465701139-Home2_Suites_by_Hilton_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>465701139</t>
+  </si>
+  <si>
+    <t>03/08/2017</t>
+  </si>
+  <si>
+    <t>Only king beds at this hotel</t>
+  </si>
+  <si>
+    <t>The hotel is nice and centrally located around shopping and dining.  Be advised if the  rooms are only equipped with a king sized bed and a pull out sofa. So a family of four or more will not be accommodated well in one room.MoreShow less</t>
+  </si>
+  <si>
+    <t>Sonya D, General Manager at Home2 Suites by Hilton Houston Stafford, responded to this reviewResponded March 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 17, 2017</t>
+  </si>
+  <si>
+    <t>The hotel is nice and centrally located around shopping and dining.  Be advised if the  rooms are only equipped with a king sized bed and a pull out sofa. So a family of four or more will not be accommodated well in one room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d10588062-r464427120-Home2_Suites_by_Hilton_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>464427120</t>
+  </si>
+  <si>
+    <t>03/03/2017</t>
+  </si>
+  <si>
+    <t>Nice hotel with friendly staff</t>
+  </si>
+  <si>
+    <t>A good hotel for business stay which serves complimentary internet and breakfast.  Rooms were clean and support staff was helpful if you need anything.   Have good Gym, onsite laundry service and rooms have kitchenette which is helpful specially for extended stays</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d10588062-r460283704-Home2_Suites_by_Hilton_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>460283704</t>
+  </si>
+  <si>
+    <t>02/14/2017</t>
+  </si>
+  <si>
+    <t>Great Room</t>
+  </si>
+  <si>
+    <t>I had a short stay for a wedding. The early check in was super helpful. I found the digital key to be great and handy. The location was superb. The only thing I would fix is the complimentary breakfast, which did not have many options. But I would definitely stay again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d10588062-r455718120-Home2_Suites_by_Hilton_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>455718120</t>
+  </si>
+  <si>
+    <t>01/29/2017</t>
+  </si>
+  <si>
+    <t>Basic Business stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stayed for a few days for a business trip. Great beds and Kitchen area is nice.  Wish you could purchase a bottle of wine or beer to take to the room.  The breakfast is very basic, so if your hungry or thirsty , definitely need to leave the hotel.  They were bad at refilling my coffee in my room. </t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d10588062-r455410983-Home2_Suites_by_Hilton_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>455410983</t>
+  </si>
+  <si>
+    <t>01/28/2017</t>
+  </si>
+  <si>
+    <t>Excellent Stay and Perfect Location</t>
+  </si>
+  <si>
+    <t>Let me first say that this Hilton Property is very new, meaning a few months old... so everything is sparkly and new. The property is in an excellent location, situated right off of HWY 59/69 near The Fountains in Stafford,TX. The hotel is nicely appointed with a business center, excellent gym, and believe it or not free guest Laundry! The free breakfast to me was the icing on the cake, the staff is very friendly and will assist you with whatever your needs require. I was here for an extended stay and the staff made it a pleasurable one. This hotel is very pet friendly. Anything one would like to do is located nearby. There is an AMC theatre directly next door. There are countless restaurants within walking distance. There is also a park a 1/2 mile from the hotel which is really nice. The suites are nicely done and the bed sleeps like a dream. There is a full refrigerator so it's wonderful that you can buy groceries and cook if wanted. There is a Main Event in the general area as well as my personal favorite eatery Razzo's... you will not be disappointed if you book here! MoreShow less</t>
+  </si>
+  <si>
+    <t>Sonya D, General Manager at Home2 Suites by Hilton Houston Stafford, responded to this reviewResponded February 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 20, 2017</t>
+  </si>
+  <si>
+    <t>Let me first say that this Hilton Property is very new, meaning a few months old... so everything is sparkly and new. The property is in an excellent location, situated right off of HWY 59/69 near The Fountains in Stafford,TX. The hotel is nicely appointed with a business center, excellent gym, and believe it or not free guest Laundry! The free breakfast to me was the icing on the cake, the staff is very friendly and will assist you with whatever your needs require. I was here for an extended stay and the staff made it a pleasurable one. This hotel is very pet friendly. Anything one would like to do is located nearby. There is an AMC theatre directly next door. There are countless restaurants within walking distance. There is also a park a 1/2 mile from the hotel which is really nice. The suites are nicely done and the bed sleeps like a dream. There is a full refrigerator so it's wonderful that you can buy groceries and cook if wanted. There is a Main Event in the general area as well as my personal favorite eatery Razzo's... you will not be disappointed if you book here! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d10588062-r453510810-Home2_Suites_by_Hilton_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>453510810</t>
+  </si>
+  <si>
+    <t>01/19/2017</t>
+  </si>
+  <si>
+    <t>Home2 - Sugarland</t>
+  </si>
+  <si>
+    <t>This was my first experience with Home2. Overall I really enjoyed my stay here. The rooms were very spacious and comfortable. The facility was very nice and clean. Highly recommend and would definitely stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Sonya D, General Manager at Home2 Suites by Hilton Houston Stafford, responded to this reviewResponded January 30, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 30, 2017</t>
+  </si>
+  <si>
+    <t>This was my first experience with Home2. Overall I really enjoyed my stay here. The rooms were very spacious and comfortable. The facility was very nice and clean. Highly recommend and would definitely stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d10588062-r448267391-Home2_Suites_by_Hilton_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>448267391</t>
+  </si>
+  <si>
+    <t>01/01/2017</t>
+  </si>
+  <si>
+    <t>Excellent hotel</t>
+  </si>
+  <si>
+    <t>Professional, courteous staff. Great room and service. Good location close to many good restaurants. Would definitely stay again when in Houston! Home2 is always my first choice when traveling. Have not been disappointed yet!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>Sonya D, General Manager at Home2 Suites by Hilton Houston Stafford, responded to this reviewResponded January 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 5, 2017</t>
+  </si>
+  <si>
+    <t>Professional, courteous staff. Great room and service. Good location close to many good restaurants. Would definitely stay again when in Houston! Home2 is always my first choice when traveling. Have not been disappointed yet!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d10588062-r447133508-Home2_Suites_by_Hilton_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>447133508</t>
+  </si>
+  <si>
+    <t>12/28/2016</t>
+  </si>
+  <si>
+    <t>Neat place</t>
+  </si>
+  <si>
+    <t>I stayed here 6 nights while traveling on business.  I travel a lot for business but this was my first time ever staying in a home2.  I was very impressed with the quality for the money.  King Suite rooms only, so it is geared towards a business traveler.  I thought the rooms were pretty neat feeling (a bit like being in an IKEA store, but something different).  The lobby itself seemed a lot homier feeling than most hotels.  Everybody at the desk was very friendly and helpful.  They offer free laundry which is very nice.  The location itself is good with plenty of restaurants within walking distance.  The single thing that keeps me from a 5 star rating is that the walls are paper thin.  Even if your neighbors are being respectful, chances are you'll hear them.  If you're a light sleeper I wouldn't recommend this.  Also, due to the king only rooms, if you're traveling with a family I'd look elsewhere.  Other than the walls being paper thin I'd recommend this to anybody!MoreShow less</t>
+  </si>
+  <si>
+    <t>Sonya D, General Manager at Home2 Suites by Hilton Houston Stafford, responded to this reviewResponded January 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 4, 2017</t>
+  </si>
+  <si>
+    <t>I stayed here 6 nights while traveling on business.  I travel a lot for business but this was my first time ever staying in a home2.  I was very impressed with the quality for the money.  King Suite rooms only, so it is geared towards a business traveler.  I thought the rooms were pretty neat feeling (a bit like being in an IKEA store, but something different).  The lobby itself seemed a lot homier feeling than most hotels.  Everybody at the desk was very friendly and helpful.  They offer free laundry which is very nice.  The location itself is good with plenty of restaurants within walking distance.  The single thing that keeps me from a 5 star rating is that the walls are paper thin.  Even if your neighbors are being respectful, chances are you'll hear them.  If you're a light sleeper I wouldn't recommend this.  Also, due to the king only rooms, if you're traveling with a family I'd look elsewhere.  Other than the walls being paper thin I'd recommend this to anybody!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d10588062-r440903171-Home2_Suites_by_Hilton_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>440903171</t>
+  </si>
+  <si>
+    <t>11/29/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marvelous Stay </t>
+  </si>
+  <si>
+    <t>I came there for business for two nights and the stay was impeccable. I am a I woke up the first morning and went to  breakfast was greeting with such a sincere and warm welcome from the breakfast lady and the front desk agent Laporsha. The rooms were very clean and spacious. With me the smallest things is what really count... The extra miles Laporsha went for me the morning of my checkout was very thoughtful. She observed and remembered my conversation the previous morning. As I was rushing out to the airport she had fresh coffee waiting on me (at 330am). She and all the staff i came in contact with was friendly and professional. If I ever get any more gigs in the Stafford Area I know exactly where I will be staying. Thanks Again for the wonderful Hospitality.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>I came there for business for two nights and the stay was impeccable. I am a I woke up the first morning and went to  breakfast was greeting with such a sincere and warm welcome from the breakfast lady and the front desk agent Laporsha. The rooms were very clean and spacious. With me the smallest things is what really count... The extra miles Laporsha went for me the morning of my checkout was very thoughtful. She observed and remembered my conversation the previous morning. As I was rushing out to the airport she had fresh coffee waiting on me (at 330am). She and all the staff i came in contact with was friendly and professional. If I ever get any more gigs in the Stafford Area I know exactly where I will be staying. Thanks Again for the wonderful Hospitality.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d10588062-r438864204-Home2_Suites_by_Hilton_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>438864204</t>
+  </si>
+  <si>
+    <t>11/20/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Really nice for the price </t>
+  </si>
+  <si>
+    <t>Stayed for over a month on business.  Facility is almost new and the rooms are nice.  Bed, pillows, and sheets are excellent quality and very comfortable.  Staff are very friendly and professional.  I shopped around and looked at the rooms in several of the suite type extended stay places nearby and this was way nicer than all the others except one which was way more expensive. I am staying here again in December and will stay again whenever business brings me to the area. MoreShow less</t>
+  </si>
+  <si>
+    <t>Sonya D, General Manager at Home2 Suites by Hilton Houston Stafford, responded to this reviewResponded November 25, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 25, 2016</t>
+  </si>
+  <si>
+    <t>Stayed for over a month on business.  Facility is almost new and the rooms are nice.  Bed, pillows, and sheets are excellent quality and very comfortable.  Staff are very friendly and professional.  I shopped around and looked at the rooms in several of the suite type extended stay places nearby and this was way nicer than all the others except one which was way more expensive. I am staying here again in December and will stay again whenever business brings me to the area. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d10588062-r438148039-Home2_Suites_by_Hilton_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>438148039</t>
+  </si>
+  <si>
+    <t>11/17/2016</t>
+  </si>
+  <si>
+    <t>Better than a hotel....it's more like home!</t>
+  </si>
+  <si>
+    <t>From the moment I drove upto this hotel, I smiled at plenty of parking...nearby restaurants, movie theaters, shopping and more. A smile greeted me and a quick check in. They have a beautiful lobby/relaxation area. So you don't have to take a guest to your room the lobby area is great to visit or meet. The rooms were spacious and colorful. Modern and well equipped if you needed to stay for a month. I loved to kitchen area everything you need. And the fridgertor  and the bath shower was glass wide and there amenities where top. Breakfast was available free of charge you could do a grab and go or sit and enjoy your meal. Hot and cold items with cool microwaveable scramble and sausages were my favorite. Free washers and dryers and a gym you can work out and do your wash. Ms. Dyer did a very good job of hiring staff, that went able and beyond   I love their blackout shades makes your room pitch black. Pillows above average bed linen soft and stylish. Ac little load but not so load I wanted to change rooms.MoreShow less</t>
+  </si>
+  <si>
+    <t>Sonya D, General Manager at Home2 Suites by Hilton Houston Stafford, responded to this reviewResponded November 23, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 23, 2016</t>
+  </si>
+  <si>
+    <t>From the moment I drove upto this hotel, I smiled at plenty of parking...nearby restaurants, movie theaters, shopping and more. A smile greeted me and a quick check in. They have a beautiful lobby/relaxation area. So you don't have to take a guest to your room the lobby area is great to visit or meet. The rooms were spacious and colorful. Modern and well equipped if you needed to stay for a month. I loved to kitchen area everything you need. And the fridgertor  and the bath shower was glass wide and there amenities where top. Breakfast was available free of charge you could do a grab and go or sit and enjoy your meal. Hot and cold items with cool microwaveable scramble and sausages were my favorite. Free washers and dryers and a gym you can work out and do your wash. Ms. Dyer did a very good job of hiring staff, that went able and beyond   I love their blackout shades makes your room pitch black. Pillows above average bed linen soft and stylish. Ac little load but not so load I wanted to change rooms.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d10588062-r437846450-Home2_Suites_by_Hilton_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>437846450</t>
+  </si>
+  <si>
+    <t>11/16/2016</t>
+  </si>
+  <si>
+    <t>Great Experience</t>
+  </si>
+  <si>
+    <t>New hotel, very pleasurable experience. Nice modern suites, friendly staff, great breakfast. Convenient to Sugar Land as well as Houston. Located in the fountains which is great shopping, eating and entertainment. Great value!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Sonya D, General Manager at Home2 Suites by Hilton Houston Stafford, responded to this reviewResponded November 20, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 20, 2016</t>
+  </si>
+  <si>
+    <t>New hotel, very pleasurable experience. Nice modern suites, friendly staff, great breakfast. Convenient to Sugar Land as well as Houston. Located in the fountains which is great shopping, eating and entertainment. Great value!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d10588062-r435512532-Home2_Suites_by_Hilton_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>435512532</t>
+  </si>
+  <si>
+    <t>11/07/2016</t>
+  </si>
+  <si>
+    <t>Clean &amp; Comfortable</t>
+  </si>
+  <si>
+    <t>Great hotel for extended stays with kitchen; however, my stay was a quick one night.  I like the fact that the hotel operates "green" for the environment.  Staff friendly and accommodating.   I've stayed at several Home2 locations, and this one lives up to the brand.MoreShow less</t>
+  </si>
+  <si>
+    <t>Sonya D, General Manager at Home2 Suites by Hilton Houston Stafford, responded to this reviewResponded November 17, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 17, 2016</t>
+  </si>
+  <si>
+    <t>Great hotel for extended stays with kitchen; however, my stay was a quick one night.  I like the fact that the hotel operates "green" for the environment.  Staff friendly and accommodating.   I've stayed at several Home2 locations, and this one lives up to the brand.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d10588062-r434080232-Home2_Suites_by_Hilton_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>434080232</t>
+  </si>
+  <si>
+    <t>11/02/2016</t>
+  </si>
+  <si>
+    <t>the room was duty</t>
+  </si>
+  <si>
+    <t>they need to clean really good the bathroom the door was all duty there wux lots of dust the doors of the bath tub was al duty they dont clean good the glass it was so duty it was al splashed and the sink tooMoreShow less</t>
+  </si>
+  <si>
+    <t>Sonya D, General Manager at Home2 Suites by Hilton Houston Stafford, responded to this reviewResponded November 6, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 6, 2016</t>
+  </si>
+  <si>
+    <t>they need to clean really good the bathroom the door was all duty there wux lots of dust the doors of the bath tub was al duty they dont clean good the glass it was so duty it was al splashed and the sink tooMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d10588062-r431374812-Home2_Suites_by_Hilton_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>431374812</t>
+  </si>
+  <si>
+    <t>10/24/2016</t>
+  </si>
+  <si>
+    <t>Worst hotel!!!</t>
+  </si>
+  <si>
+    <t>We waited 30 minutes to check in at 2AM when there's nobody else that's checking in. The employee didn't know how to check us in! When we got to our room, it was dirty! We had to wait again to check in to another room! The employee messed up our rate because she didn't know what she was doing! Instead of paying the employee rate, she charged us the regular rate so when we checked out it was wrong so we had to wait another 30 minutes even at check out! We had to call the supervisor who was rude 3x for her to email our receipts because she couldn't figure it out either how to give our money back! It was so inconvenient to have our credit card charged so much money which was wrong and then call so many times asking for our receipt. Our stay was a nightmare and the employees at this hotel didn't know how to do their jobs and rude. This is the worst hotel experience ever!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Sonya D, General Manager at Home2 Suites by Hilton Houston Stafford, responded to this reviewResponded October 28, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 28, 2016</t>
+  </si>
+  <si>
+    <t>We waited 30 minutes to check in at 2AM when there's nobody else that's checking in. The employee didn't know how to check us in! When we got to our room, it was dirty! We had to wait again to check in to another room! The employee messed up our rate because she didn't know what she was doing! Instead of paying the employee rate, she charged us the regular rate so when we checked out it was wrong so we had to wait another 30 minutes even at check out! We had to call the supervisor who was rude 3x for her to email our receipts because she couldn't figure it out either how to give our money back! It was so inconvenient to have our credit card charged so much money which was wrong and then call so many times asking for our receipt. Our stay was a nightmare and the employees at this hotel didn't know how to do their jobs and rude. This is the worst hotel experience ever!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d10588062-r429049850-Home2_Suites_by_Hilton_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>429049850</t>
+  </si>
+  <si>
+    <t>10/17/2016</t>
+  </si>
+  <si>
+    <t>Great service, beautiful hotel</t>
+  </si>
+  <si>
+    <t>I had a BIG group in town for an event.  We booked 29 rooms with this hotel for the weekend.  Nickie Richardson, the Director of Sales, went above and beyond on accomodating our large group at a great negotiated rate!  We also use this same hotel for our buisiness traveler when they are in town.  Everyone raves about the hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>I had a BIG group in town for an event.  We booked 29 rooms with this hotel for the weekend.  Nickie Richardson, the Director of Sales, went above and beyond on accomodating our large group at a great negotiated rate!  We also use this same hotel for our buisiness traveler when they are in town.  Everyone raves about the hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d10588062-r428321021-Home2_Suites_by_Hilton_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>428321021</t>
+  </si>
+  <si>
+    <t>10/15/2016</t>
+  </si>
+  <si>
+    <t>Accommodations great, but...</t>
+  </si>
+  <si>
+    <t>The hotel as a hotel is wonderful and I enjoyed my stay, but some effort needs to be put into providing a better breakfast with more options. If you are looking for a good in-and-out experience and not depending on their breakfast, a very nice place to stay.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d10588062-r427259940-Home2_Suites_by_Hilton_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>427259940</t>
+  </si>
+  <si>
+    <t>10/11/2016</t>
+  </si>
+  <si>
+    <t>A nice clean affordable place to stay the night</t>
+  </si>
+  <si>
+    <t>I stayed here for two nights and this is my second time to stay in this brand of hotel.  I have no issues, but would recommend a deeper pool and a rowing machine for the exercise room.  Staff was nice, room was clean, and breakfast was good too.</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1606,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1638,3705 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>65365</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>5</v>
+      </c>
+      <c r="R2" t="n">
+        <v>5</v>
+      </c>
+      <c r="S2" t="n">
+        <v>5</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>65365</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>5</v>
+      </c>
+      <c r="R3" t="n">
+        <v>5</v>
+      </c>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>65365</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>59</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>4</v>
+      </c>
+      <c r="R4" t="n">
+        <v>4</v>
+      </c>
+      <c r="S4" t="n">
+        <v>4</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>4</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>65365</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" t="s">
+        <v>69</v>
+      </c>
+      <c r="L5" t="s">
+        <v>70</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>71</v>
+      </c>
+      <c r="O5" t="s">
+        <v>60</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>65365</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" t="s">
+        <v>74</v>
+      </c>
+      <c r="K6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L6" t="s">
+        <v>76</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>77</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>5</v>
+      </c>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>65365</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>79</v>
+      </c>
+      <c r="J7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L7" t="s">
+        <v>82</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>77</v>
+      </c>
+      <c r="O7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>65365</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>85</v>
+      </c>
+      <c r="J8" t="s">
+        <v>86</v>
+      </c>
+      <c r="K8" t="s">
+        <v>87</v>
+      </c>
+      <c r="L8" t="s">
+        <v>88</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>89</v>
+      </c>
+      <c r="O8" t="s">
+        <v>83</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="n">
+        <v>4</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>4</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>65365</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>91</v>
+      </c>
+      <c r="J9" t="s">
+        <v>86</v>
+      </c>
+      <c r="K9" t="s">
+        <v>92</v>
+      </c>
+      <c r="L9" t="s">
+        <v>93</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>89</v>
+      </c>
+      <c r="O9" t="s">
+        <v>83</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>65365</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>95</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>96</v>
+      </c>
+      <c r="J10" t="s">
+        <v>97</v>
+      </c>
+      <c r="K10" t="s">
+        <v>98</v>
+      </c>
+      <c r="L10" t="s">
+        <v>99</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>89</v>
+      </c>
+      <c r="O10" t="s">
+        <v>83</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>65365</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>101</v>
+      </c>
+      <c r="J11" t="s">
+        <v>102</v>
+      </c>
+      <c r="K11" t="s">
+        <v>103</v>
+      </c>
+      <c r="L11" t="s">
+        <v>104</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>105</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>65365</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>106</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>107</v>
+      </c>
+      <c r="J12" t="s">
+        <v>108</v>
+      </c>
+      <c r="K12" t="s">
+        <v>109</v>
+      </c>
+      <c r="L12" t="s">
+        <v>110</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>111</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>65365</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>112</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>113</v>
+      </c>
+      <c r="J13" t="s">
+        <v>114</v>
+      </c>
+      <c r="K13" t="s">
+        <v>115</v>
+      </c>
+      <c r="L13" t="s">
+        <v>116</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>111</v>
+      </c>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="n">
+        <v>4</v>
+      </c>
+      <c r="S13" t="n">
+        <v>4</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>4</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>65365</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>118</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>119</v>
+      </c>
+      <c r="J14" t="s">
+        <v>120</v>
+      </c>
+      <c r="K14" t="s">
+        <v>121</v>
+      </c>
+      <c r="L14" t="s">
+        <v>122</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>123</v>
+      </c>
+      <c r="O14" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>65365</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>124</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>125</v>
+      </c>
+      <c r="J15" t="s">
+        <v>126</v>
+      </c>
+      <c r="K15" t="s">
+        <v>127</v>
+      </c>
+      <c r="L15" t="s">
+        <v>128</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>123</v>
+      </c>
+      <c r="O15" t="s">
+        <v>60</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>65365</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>129</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>130</v>
+      </c>
+      <c r="J16" t="s">
+        <v>131</v>
+      </c>
+      <c r="K16" t="s">
+        <v>132</v>
+      </c>
+      <c r="L16" t="s">
+        <v>133</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>123</v>
+      </c>
+      <c r="O16" t="s">
+        <v>83</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>65365</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>134</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>135</v>
+      </c>
+      <c r="J17" t="s">
+        <v>136</v>
+      </c>
+      <c r="K17" t="s">
+        <v>137</v>
+      </c>
+      <c r="L17" t="s">
+        <v>138</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>139</v>
+      </c>
+      <c r="O17" t="s">
+        <v>140</v>
+      </c>
+      <c r="P17" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>4</v>
+      </c>
+      <c r="R17" t="n">
+        <v>4</v>
+      </c>
+      <c r="S17" t="n">
+        <v>4</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>4</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>65365</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>141</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>142</v>
+      </c>
+      <c r="J18" t="s">
+        <v>143</v>
+      </c>
+      <c r="K18" t="s">
+        <v>144</v>
+      </c>
+      <c r="L18" t="s">
+        <v>145</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>146</v>
+      </c>
+      <c r="O18" t="s">
+        <v>60</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>4</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>65365</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>147</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>148</v>
+      </c>
+      <c r="J19" t="s">
+        <v>149</v>
+      </c>
+      <c r="K19" t="s">
+        <v>150</v>
+      </c>
+      <c r="L19" t="s">
+        <v>151</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>152</v>
+      </c>
+      <c r="O19" t="s">
+        <v>60</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="n">
+        <v>4</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>4</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>65365</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>153</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>154</v>
+      </c>
+      <c r="J20" t="s">
+        <v>155</v>
+      </c>
+      <c r="K20" t="s">
+        <v>156</v>
+      </c>
+      <c r="L20" t="s">
+        <v>157</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>158</v>
+      </c>
+      <c r="O20" t="s">
+        <v>60</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="n">
+        <v>4</v>
+      </c>
+      <c r="S20" t="n">
+        <v>4</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>65365</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>159</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>160</v>
+      </c>
+      <c r="J21" t="s">
+        <v>161</v>
+      </c>
+      <c r="K21" t="s">
+        <v>162</v>
+      </c>
+      <c r="L21" t="s">
+        <v>163</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>158</v>
+      </c>
+      <c r="O21" t="s">
+        <v>140</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>65365</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>164</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>165</v>
+      </c>
+      <c r="J22" t="s">
+        <v>166</v>
+      </c>
+      <c r="K22" t="s">
+        <v>167</v>
+      </c>
+      <c r="L22" t="s">
+        <v>168</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" t="s">
+        <v>139</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>4</v>
+      </c>
+      <c r="R22" t="n">
+        <v>4</v>
+      </c>
+      <c r="S22" t="n">
+        <v>3</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>1</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>65365</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>170</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>171</v>
+      </c>
+      <c r="J23" t="s">
+        <v>172</v>
+      </c>
+      <c r="K23" t="s">
+        <v>173</v>
+      </c>
+      <c r="L23" t="s">
+        <v>174</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>152</v>
+      </c>
+      <c r="O23" t="s">
+        <v>83</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="n">
+        <v>4</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>65365</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>176</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>177</v>
+      </c>
+      <c r="J24" t="s">
+        <v>178</v>
+      </c>
+      <c r="K24" t="s">
+        <v>179</v>
+      </c>
+      <c r="L24" t="s">
+        <v>180</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>139</v>
+      </c>
+      <c r="O24" t="s">
+        <v>83</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>65365</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>181</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>182</v>
+      </c>
+      <c r="J25" t="s">
+        <v>183</v>
+      </c>
+      <c r="K25" t="s">
+        <v>184</v>
+      </c>
+      <c r="L25" t="s">
+        <v>185</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>139</v>
+      </c>
+      <c r="O25" t="s">
+        <v>60</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>65365</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>186</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>187</v>
+      </c>
+      <c r="J26" t="s">
+        <v>188</v>
+      </c>
+      <c r="K26" t="s">
+        <v>189</v>
+      </c>
+      <c r="L26" t="s">
+        <v>190</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>152</v>
+      </c>
+      <c r="O26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>65365</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>191</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>192</v>
+      </c>
+      <c r="J27" t="s">
+        <v>193</v>
+      </c>
+      <c r="K27" t="s">
+        <v>194</v>
+      </c>
+      <c r="L27" t="s">
+        <v>195</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>196</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>197</v>
+      </c>
+      <c r="X27" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>65365</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>200</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>201</v>
+      </c>
+      <c r="J28" t="s">
+        <v>202</v>
+      </c>
+      <c r="K28" t="s">
+        <v>203</v>
+      </c>
+      <c r="L28" t="s">
+        <v>204</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>196</v>
+      </c>
+      <c r="O28" t="s">
+        <v>60</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="n">
+        <v>4</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>197</v>
+      </c>
+      <c r="X28" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>65365</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>206</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>207</v>
+      </c>
+      <c r="J29" t="s">
+        <v>208</v>
+      </c>
+      <c r="K29" t="s">
+        <v>209</v>
+      </c>
+      <c r="L29" t="s">
+        <v>210</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>211</v>
+      </c>
+      <c r="O29" t="s">
+        <v>212</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>213</v>
+      </c>
+      <c r="X29" t="s">
+        <v>214</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>65365</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>216</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>217</v>
+      </c>
+      <c r="J30" t="s">
+        <v>218</v>
+      </c>
+      <c r="K30" t="s">
+        <v>219</v>
+      </c>
+      <c r="L30" t="s">
+        <v>220</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>211</v>
+      </c>
+      <c r="O30" t="s">
+        <v>83</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>213</v>
+      </c>
+      <c r="X30" t="s">
+        <v>214</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>65365</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>222</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>223</v>
+      </c>
+      <c r="J31" t="s">
+        <v>224</v>
+      </c>
+      <c r="K31" t="s">
+        <v>225</v>
+      </c>
+      <c r="L31" t="s">
+        <v>226</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>211</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>213</v>
+      </c>
+      <c r="X31" t="s">
+        <v>214</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>65365</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>228</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>229</v>
+      </c>
+      <c r="J32" t="s">
+        <v>230</v>
+      </c>
+      <c r="K32" t="s">
+        <v>231</v>
+      </c>
+      <c r="L32" t="s">
+        <v>232</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>233</v>
+      </c>
+      <c r="O32" t="s">
+        <v>60</v>
+      </c>
+      <c r="P32" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>4</v>
+      </c>
+      <c r="R32" t="n">
+        <v>4</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>4</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>234</v>
+      </c>
+      <c r="X32" t="s">
+        <v>235</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>65365</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>237</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>238</v>
+      </c>
+      <c r="J33" t="s">
+        <v>239</v>
+      </c>
+      <c r="K33" t="s">
+        <v>240</v>
+      </c>
+      <c r="L33" t="s">
+        <v>241</v>
+      </c>
+      <c r="M33" t="n">
+        <v>3</v>
+      </c>
+      <c r="N33" t="s">
+        <v>233</v>
+      </c>
+      <c r="O33" t="s">
+        <v>140</v>
+      </c>
+      <c r="P33" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>4</v>
+      </c>
+      <c r="R33" t="n">
+        <v>3</v>
+      </c>
+      <c r="S33" t="n">
+        <v>4</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>3</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>234</v>
+      </c>
+      <c r="X33" t="s">
+        <v>235</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>65365</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>243</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>244</v>
+      </c>
+      <c r="J34" t="s">
+        <v>245</v>
+      </c>
+      <c r="K34" t="s">
+        <v>246</v>
+      </c>
+      <c r="L34" t="s">
+        <v>247</v>
+      </c>
+      <c r="M34" t="n">
+        <v>2</v>
+      </c>
+      <c r="N34" t="s">
+        <v>233</v>
+      </c>
+      <c r="O34" t="s">
+        <v>60</v>
+      </c>
+      <c r="P34" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1</v>
+      </c>
+      <c r="R34" t="n">
+        <v>3</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>3</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>248</v>
+      </c>
+      <c r="X34" t="s">
+        <v>249</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>65365</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>251</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>252</v>
+      </c>
+      <c r="J35" t="s">
+        <v>253</v>
+      </c>
+      <c r="K35" t="s">
+        <v>254</v>
+      </c>
+      <c r="L35" t="s">
+        <v>255</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>256</v>
+      </c>
+      <c r="O35" t="s">
+        <v>53</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>65365</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>257</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>258</v>
+      </c>
+      <c r="J36" t="s">
+        <v>259</v>
+      </c>
+      <c r="K36" t="s">
+        <v>260</v>
+      </c>
+      <c r="L36" t="s">
+        <v>261</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>262</v>
+      </c>
+      <c r="O36" t="s">
+        <v>60</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>65365</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>263</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>264</v>
+      </c>
+      <c r="J37" t="s">
+        <v>265</v>
+      </c>
+      <c r="K37" t="s">
+        <v>266</v>
+      </c>
+      <c r="L37" t="s">
+        <v>267</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>256</v>
+      </c>
+      <c r="O37" t="s">
+        <v>140</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>65365</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>268</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>269</v>
+      </c>
+      <c r="J38" t="s">
+        <v>270</v>
+      </c>
+      <c r="K38" t="s">
+        <v>271</v>
+      </c>
+      <c r="L38" t="s">
+        <v>272</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>256</v>
+      </c>
+      <c r="O38" t="s">
+        <v>83</v>
+      </c>
+      <c r="P38" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>3</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>4</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>273</v>
+      </c>
+      <c r="X38" t="s">
+        <v>274</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>65365</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>276</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>277</v>
+      </c>
+      <c r="J39" t="s">
+        <v>278</v>
+      </c>
+      <c r="K39" t="s">
+        <v>279</v>
+      </c>
+      <c r="L39" t="s">
+        <v>280</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>281</v>
+      </c>
+      <c r="O39" t="s">
+        <v>60</v>
+      </c>
+      <c r="P39" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>65365</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>282</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>283</v>
+      </c>
+      <c r="J40" t="s">
+        <v>284</v>
+      </c>
+      <c r="K40" t="s">
+        <v>285</v>
+      </c>
+      <c r="L40" t="s">
+        <v>286</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>281</v>
+      </c>
+      <c r="O40" t="s">
+        <v>83</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>65365</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>287</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>288</v>
+      </c>
+      <c r="J41" t="s">
+        <v>289</v>
+      </c>
+      <c r="K41" t="s">
+        <v>290</v>
+      </c>
+      <c r="L41" t="s">
+        <v>291</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>292</v>
+      </c>
+      <c r="O41" t="s">
+        <v>60</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="n">
+        <v>4</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>65365</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>293</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>294</v>
+      </c>
+      <c r="J42" t="s">
+        <v>295</v>
+      </c>
+      <c r="K42" t="s">
+        <v>296</v>
+      </c>
+      <c r="L42" t="s">
+        <v>297</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>292</v>
+      </c>
+      <c r="O42" t="s">
+        <v>83</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>298</v>
+      </c>
+      <c r="X42" t="s">
+        <v>299</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>65365</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>301</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>302</v>
+      </c>
+      <c r="J43" t="s">
+        <v>303</v>
+      </c>
+      <c r="K43" t="s">
+        <v>304</v>
+      </c>
+      <c r="L43" t="s">
+        <v>305</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>292</v>
+      </c>
+      <c r="O43" t="s">
+        <v>83</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>306</v>
+      </c>
+      <c r="X43" t="s">
+        <v>307</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>65365</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>309</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>310</v>
+      </c>
+      <c r="J44" t="s">
+        <v>311</v>
+      </c>
+      <c r="K44" t="s">
+        <v>312</v>
+      </c>
+      <c r="L44" t="s">
+        <v>313</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>314</v>
+      </c>
+      <c r="O44" t="s">
+        <v>140</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>315</v>
+      </c>
+      <c r="X44" t="s">
+        <v>316</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>65365</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>318</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>319</v>
+      </c>
+      <c r="J45" t="s">
+        <v>320</v>
+      </c>
+      <c r="K45" t="s">
+        <v>321</v>
+      </c>
+      <c r="L45" t="s">
+        <v>322</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>314</v>
+      </c>
+      <c r="O45" t="s">
+        <v>60</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="s"/>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>323</v>
+      </c>
+      <c r="X45" t="s">
+        <v>324</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>65365</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>326</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>327</v>
+      </c>
+      <c r="J46" t="s">
+        <v>328</v>
+      </c>
+      <c r="K46" t="s">
+        <v>329</v>
+      </c>
+      <c r="L46" t="s">
+        <v>330</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>331</v>
+      </c>
+      <c r="O46" t="s">
+        <v>60</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="s"/>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>65365</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>333</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>334</v>
+      </c>
+      <c r="J47" t="s">
+        <v>335</v>
+      </c>
+      <c r="K47" t="s">
+        <v>336</v>
+      </c>
+      <c r="L47" t="s">
+        <v>337</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>331</v>
+      </c>
+      <c r="O47" t="s">
+        <v>60</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="s"/>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>338</v>
+      </c>
+      <c r="X47" t="s">
+        <v>339</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>65365</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>341</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>342</v>
+      </c>
+      <c r="J48" t="s">
+        <v>343</v>
+      </c>
+      <c r="K48" t="s">
+        <v>344</v>
+      </c>
+      <c r="L48" t="s">
+        <v>345</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>331</v>
+      </c>
+      <c r="O48" t="s">
+        <v>140</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="n">
+        <v>4</v>
+      </c>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>346</v>
+      </c>
+      <c r="X48" t="s">
+        <v>347</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>65365</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>349</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>350</v>
+      </c>
+      <c r="J49" t="s">
+        <v>351</v>
+      </c>
+      <c r="K49" t="s">
+        <v>352</v>
+      </c>
+      <c r="L49" t="s">
+        <v>353</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>331</v>
+      </c>
+      <c r="O49" t="s">
+        <v>53</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="n">
+        <v>4</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>354</v>
+      </c>
+      <c r="X49" t="s">
+        <v>355</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>65365</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>357</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>358</v>
+      </c>
+      <c r="J50" t="s">
+        <v>359</v>
+      </c>
+      <c r="K50" t="s">
+        <v>360</v>
+      </c>
+      <c r="L50" t="s">
+        <v>361</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>331</v>
+      </c>
+      <c r="O50" t="s">
+        <v>60</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>362</v>
+      </c>
+      <c r="X50" t="s">
+        <v>363</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>65365</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>365</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>366</v>
+      </c>
+      <c r="J51" t="s">
+        <v>367</v>
+      </c>
+      <c r="K51" t="s">
+        <v>368</v>
+      </c>
+      <c r="L51" t="s">
+        <v>369</v>
+      </c>
+      <c r="M51" t="n">
+        <v>3</v>
+      </c>
+      <c r="N51" t="s">
+        <v>262</v>
+      </c>
+      <c r="O51" t="s">
+        <v>60</v>
+      </c>
+      <c r="P51" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>1</v>
+      </c>
+      <c r="R51" t="n">
+        <v>3</v>
+      </c>
+      <c r="S51" t="n">
+        <v>1</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>3</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>370</v>
+      </c>
+      <c r="X51" t="s">
+        <v>371</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>65365</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>373</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>374</v>
+      </c>
+      <c r="J52" t="s">
+        <v>375</v>
+      </c>
+      <c r="K52" t="s">
+        <v>376</v>
+      </c>
+      <c r="L52" t="s">
+        <v>377</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1</v>
+      </c>
+      <c r="N52" t="s">
+        <v>262</v>
+      </c>
+      <c r="O52" t="s">
+        <v>83</v>
+      </c>
+      <c r="P52" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>1</v>
+      </c>
+      <c r="R52" t="n">
+        <v>1</v>
+      </c>
+      <c r="S52" t="n">
+        <v>1</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>1</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>378</v>
+      </c>
+      <c r="X52" t="s">
+        <v>379</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>65365</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>381</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>382</v>
+      </c>
+      <c r="J53" t="s">
+        <v>383</v>
+      </c>
+      <c r="K53" t="s">
+        <v>384</v>
+      </c>
+      <c r="L53" t="s">
+        <v>385</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>262</v>
+      </c>
+      <c r="O53" t="s">
+        <v>60</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>378</v>
+      </c>
+      <c r="X53" t="s">
+        <v>379</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>65365</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>387</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>388</v>
+      </c>
+      <c r="J54" t="s">
+        <v>389</v>
+      </c>
+      <c r="K54" t="s">
+        <v>390</v>
+      </c>
+      <c r="L54" t="s">
+        <v>391</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s">
+        <v>262</v>
+      </c>
+      <c r="O54" t="s">
+        <v>60</v>
+      </c>
+      <c r="P54" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>4</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>65365</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>392</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>393</v>
+      </c>
+      <c r="J55" t="s">
+        <v>394</v>
+      </c>
+      <c r="K55" t="s">
+        <v>395</v>
+      </c>
+      <c r="L55" t="s">
+        <v>396</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s">
+        <v>262</v>
+      </c>
+      <c r="O55" t="s">
+        <v>60</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>4</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>4</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>396</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_366.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_366.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="620">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,93 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>09/07/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d10588062-r605388568-Home2_Suites_by_Hilton_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>56707</t>
+  </si>
+  <si>
+    <t>10588062</t>
+  </si>
+  <si>
+    <t>605388568</t>
+  </si>
+  <si>
     <t>08/11/2018</t>
   </si>
   <si>
+    <t>Buisness travel</t>
+  </si>
+  <si>
+    <t>Great place, very clean, nice staff, good options for breakfast. If room service would have been offered it woiuld have made my nights easier than going to local restaurants. Also if the machine in lobby offered beer or wine that would be great.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Sonya D, General Manager at Home2 Suites by Hilton Houston Stafford, responded to this reviewResponded 1 week ago</t>
+  </si>
+  <si>
+    <t>Responded 1 week ago</t>
+  </si>
+  <si>
+    <t>Great place, very clean, nice staff, good options for breakfast. If room service would have been offered it woiuld have made my nights easier than going to local restaurants. Also if the machine in lobby offered beer or wine that would be great.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d10588062-r602483315-Home2_Suites_by_Hilton_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>602483315</t>
+  </si>
+  <si>
+    <t>08/03/2018</t>
+  </si>
+  <si>
+    <t>Great experience</t>
+  </si>
+  <si>
+    <t>This Hilton property is a terrified property.  I haves stayed about 20 times atvthe orioerty The suites are spacious very clean and well appointed.  I have scheduled 10 addditional days and anticipate the same outstanding experience.  The staffing is outstanding and very helpful.Breakfast is adequate for a traveler MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>This Hilton property is a terrified property.  I haves stayed about 20 times atvthe orioerty The suites are spacious very clean and well appointed.  I have scheduled 10 addditional days and anticipate the same outstanding experience.  The staffing is outstanding and very helpful.Breakfast is adequate for a traveler More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d10588062-r595329466-Home2_Suites_by_Hilton_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>595329466</t>
+  </si>
+  <si>
+    <t>07/11/2018</t>
+  </si>
+  <si>
+    <t>great value, excellent hotel</t>
+  </si>
+  <si>
+    <t>The hotel was clean, the staff was friendly and accommodating and the location was central.  We saw a movie next door, had beers across the street, and went to the Asian market and restaurants close by.  It was really good.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>The hotel was clean, the staff was friendly and accommodating and the location was central.  We saw a movie next door, had beers across the street, and went to the Asian market and restaurants close by.  It was really good.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d10588062-r595052581-Home2_Suites_by_Hilton_Houston_Stafford-Stafford_Texas.html</t>
   </si>
   <si>
-    <t>56707</t>
-  </si>
-  <si>
-    <t>10588062</t>
-  </si>
-  <si>
     <t>595052581</t>
   </si>
   <si>
@@ -171,13 +246,10 @@
     <t>very nice</t>
   </si>
   <si>
-    <t xml:space="preserve">I would highly recommend this Hilton facility to everyone.  We came for a staycation and to enjoy the pool it this hot weather.  It was very clean, comfortable and with nice helpful employees.  The pool was great. </t>
-  </si>
-  <si>
-    <t>July 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled as a couple</t>
+    <t>I would highly recommend this Hilton facility to everyone.  We came for a staycation and to enjoy the pool it this hot weather.  It was very clean, comfortable and with nice helpful employees.  The pool was great. MoreShow less</t>
+  </si>
+  <si>
+    <t>I would highly recommend this Hilton facility to everyone.  We came for a staycation and to enjoy the pool it this hot weather.  It was very clean, comfortable and with nice helpful employees.  The pool was great. More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d10588062-r592401721-Home2_Suites_by_Hilton_Houston_Stafford-Stafford_Texas.html</t>
@@ -192,13 +264,13 @@
     <t>Great Hotel in Stafford, TX</t>
   </si>
   <si>
-    <t xml:space="preserve">This was my first stay at Home2 Suites in Stafford, TX.  Hotel was very modern, clean and was very, very nice.  My room was very large with a nice kitchen.  I will definitely stay here again.  The nice gym and pool are also a big plus.  </t>
+    <t>This was my first stay at Home2 Suites in Stafford, TX.  Hotel was very modern, clean and was very, very nice.  My room was very large with a nice kitchen.  I will definitely stay here again.  The nice gym and pool are also a big plus.  MoreShow less</t>
   </si>
   <si>
     <t>June 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
+    <t>This was my first stay at Home2 Suites in Stafford, TX.  Hotel was very modern, clean and was very, very nice.  My room was very large with a nice kitchen.  I will definitely stay here again.  The nice gym and pool are also a big plus.  More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d10588062-r591125485-Home2_Suites_by_Hilton_Houston_Stafford-Stafford_Texas.html</t>
@@ -213,7 +285,40 @@
     <t>Nice modern hotel</t>
   </si>
   <si>
-    <t xml:space="preserve">Nice new modern hotel! This is a nice facility in a great location. Once you get through the Houston traffic, you're set! There is a nice new shopping center right next door to the hotel with plenty of restaurants. </t>
+    <t>Nice new modern hotel! This is a nice facility in a great location. Once you get through the Houston traffic, you're set! There is a nice new shopping center right next door to the hotel with plenty of restaurants. MoreShow less</t>
+  </si>
+  <si>
+    <t>Nice new modern hotel! This is a nice facility in a great location. Once you get through the Houston traffic, you're set! There is a nice new shopping center right next door to the hotel with plenty of restaurants. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d10588062-r583637562-Home2_Suites_by_Hilton_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>583637562</t>
+  </si>
+  <si>
+    <t>05/29/2018</t>
+  </si>
+  <si>
+    <t>Houston at Home2Suites</t>
+  </si>
+  <si>
+    <t>Overall very clean and the staff was excellent. Wifi connections were not good unless you had AT&amp;T. Had to jump through hoops in order to get connected. The continental breakfast was okay but minimal as compared to other places I have stayed.</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d10588062-r583576797-Home2_Suites_by_Hilton_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>583576797</t>
+  </si>
+  <si>
+    <t>Great property in a convenient location</t>
+  </si>
+  <si>
+    <t>First time we stayed in this brand and it was a very positive experience.Parking is plentiful and is at no additional cost.The check-in process was very smooth and the desk clerk was pleasant and efficient.The property was clean and in great condition.The room was large, decorated like Ikea, had plenty of what you need for an extended stay: microwave, dishwasher, plates, refrigerator, etc.Bathroom had soap and shampoo in wall pumps in the shower. There were plenty of towels.There was no in-room safe at least where we could find it.Breakfast was good, continental, they also had packaged breakfast sandwiches.Also the fire escape/stairwell were probably the most clean I've seen.Great experience.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d10588062-r583102417-Home2_Suites_by_Hilton_Houston_Stafford-Stafford_Texas.html</t>
@@ -231,9 +336,6 @@
     <t>I really like this brand and this particular hotel is great.  Friendly staff, quiet location and rooms.  Lots of restaurants and shopping nearby.  I would definitely stay here again and also in other cities.</t>
   </si>
   <si>
-    <t>May 2018</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d10588062-r578096475-Home2_Suites_by_Hilton_Houston_Stafford-Stafford_Texas.html</t>
   </si>
   <si>
@@ -267,7 +369,34 @@
     <t>Staff very friendly and helpful. I love that they engage with the guest, they made sure our stay was great. The breakfast was delicious and they made sure people didn't just touch all over the food. I'll most definitely be back.</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d10588062-r573841631-Home2_Suites_by_Hilton_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>573841631</t>
+  </si>
+  <si>
+    <t>04/16/2018</t>
+  </si>
+  <si>
+    <t>Second time at this location</t>
+  </si>
+  <si>
+    <t>Clean, good location and a very homey feel to the rooms. Feels more like an apartment then a hotel room. I will stay here every trip I make to this part of Houston. Both times the stay was great, and close to several good restaurants.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d10588062-r572928252-Home2_Suites_by_Hilton_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>572928252</t>
+  </si>
+  <si>
+    <t>04/12/2018</t>
+  </si>
+  <si>
+    <t>Awesome stay!</t>
+  </si>
+  <si>
+    <t>My stay here was awesome from beginning to end. I met the wonderful Ms. Cece during check out. She ensured that my family was treated well. The room was clean, comfortable, and quiet. The housekeeping staff was amazing and the available amenities were beyond sufficient. I will definitely be staying here again!</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d10588062-r569189510-Home2_Suites_by_Hilton_Houston_Stafford-Stafford_Texas.html</t>
@@ -318,6 +447,42 @@
     <t>Very clean and spacious room.  The staff was very helpful.I requested to have my checkout time extended and she did not have a problem with it.  During, breakfast, since we got to the hotel late, we also went to the breakfast bar late.  The lady working there happily allowed us to get our food.Will definitely choose this brand on my business trips.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d10588062-r565704377-Home2_Suites_by_Hilton_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>565704377</t>
+  </si>
+  <si>
+    <t>03/10/2018</t>
+  </si>
+  <si>
+    <t>Home2 does it right!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Our room was clean on arrival. And during our four night stay we asked for only one “light cleaning”. It was done excellently. Friendly staff. Good value. Would stay again and recommend without hesitation. </t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d10588062-r563246856-Home2_Suites_by_Hilton_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>563246856</t>
+  </si>
+  <si>
+    <t>02/27/2018</t>
+  </si>
+  <si>
+    <t>Great Hotel!</t>
+  </si>
+  <si>
+    <t>This was our first stay at a Home2 Suites.  It was amazing.  We stayed in Room #403.  It was at the far end of the hallway and on the back side of the hotel.  Very quiet, except for the loud TV in the next room.  We loved everything about the room.  The step-in shower was modern and the faucet was away from the shower head so as not to get that first blast of cold water.  The kitchenette included a large refrigerator, microwave and dishwasher.  It also contained dishes, glassware, utensils and some cookware.  The king-size bed was very comfortable and we loved the sheets.  We really liked the counter space and storage in the room. The only thing we'd want to add would be a light for the long counter in the bedroom area. The morning breakfast was simple but tasty.  There are 2 washers and dryers available for guest use at no charge.  The staff was very friendly and greeted us whenever we left or came back.  There were many restaurant choices close by and several within walking distance.  Planning to stay here again when we visit in 2019.MoreShow less</t>
+  </si>
+  <si>
+    <t>This was our first stay at a Home2 Suites.  It was amazing.  We stayed in Room #403.  It was at the far end of the hallway and on the back side of the hotel.  Very quiet, except for the loud TV in the next room.  We loved everything about the room.  The step-in shower was modern and the faucet was away from the shower head so as not to get that first blast of cold water.  The kitchenette included a large refrigerator, microwave and dishwasher.  It also contained dishes, glassware, utensils and some cookware.  The king-size bed was very comfortable and we loved the sheets.  We really liked the counter space and storage in the room. The only thing we'd want to add would be a light for the long counter in the bedroom area. The morning breakfast was simple but tasty.  There are 2 washers and dryers available for guest use at no charge.  The staff was very friendly and greeted us whenever we left or came back.  There were many restaurant choices close by and several within walking distance.  Planning to stay here again when we visit in 2019.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d10588062-r561959147-Home2_Suites_by_Hilton_Houston_Stafford-Stafford_Texas.html</t>
   </si>
   <si>
@@ -333,9 +498,6 @@
     <t>Lots of space, more kitchen than I needed, super clean!  Sheets were better than what I have at home.  I'm a neat freak and slight germophobe!  This place was great!  I even walked around barefoot which I never do at a hotel.  I will recommend to friends and family and seek out this hotel chain whenever I travel!</t>
   </si>
   <si>
-    <t>February 2018</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d10588062-r555953385-Home2_Suites_by_Hilton_Houston_Stafford-Stafford_Texas.html</t>
   </si>
   <si>
@@ -372,6 +534,39 @@
     <t>I chose this hotel for the price and location, and was not disappointed.  It is located next door to an AMC movie theatre and several restaurants were close by, as well as a shopping center.  Our concert was rescheduled so we ended up having to stay an extra day, and the front desk was very helpful and professional in getting our stay extended.  This is a "green" hotel, so there is only one trash bag in each room, and the shampoo and shower gel are in a dispenser on the wall instead of tiny bottles.  They give out healthier green apples instead of chocolate chip cookies!  The free breakfast bar closes promptly at 9:00 am so don't sleep in...More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d10588062-r551048858-Home2_Suites_by_Hilton_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>551048858</t>
+  </si>
+  <si>
+    <t>01/02/2018</t>
+  </si>
+  <si>
+    <t>Excellent location. Quiet!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The service is excellent &amp; staff are friendly. The room is spacious. Complimentary breakfast available. It  is near restaurants &amp; shopping center. AMC theater is across street. My family loved the location. </t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d10588062-r550740184-Home2_Suites_by_Hilton_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>550740184</t>
+  </si>
+  <si>
+    <t>01/01/2018</t>
+  </si>
+  <si>
+    <t>Amazing Room, Great Stay</t>
+  </si>
+  <si>
+    <t>Grounds, lobby, and room were all terrific and modern. Bed was VERY comfortable, room was spacious, quiet and clean. Bathroom had no tub, only shower which is perfect for us;  vanity had plenty of space for our toiletries. Kitchenette was very convenient, real cups for coffee was a nice touch. Only drawbacks we found were:  there were only two pillows for king size bed and they were very floppy, no lotion or conditioner bottles-only shower gel and shampoo dispensers in shower, and hot breakfast-eggs, sandwiches, etc. had to be microwaved. Aside from these inconveniences, we would not hesitate to stay here again and strongly recommend this great hotel.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d10588062-r543945073-Home2_Suites_by_Hilton_Houston_Stafford-Stafford_Texas.html</t>
   </si>
   <si>
@@ -420,6 +615,39 @@
     <t xml:space="preserve">Very satisfied. We stayed at the Stafford, Texas location and the staff was very friendly. The rooms were very spacious and clean. This is a great place for kids or couples. We will definetly be staying here in the future. Highly recommended! </t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d10588062-r536309094-Home2_Suites_by_Hilton_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>536309094</t>
+  </si>
+  <si>
+    <t>10/26/2017</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stay was great. Room was clean and nice.  Clean Linens and bathroom was neat.  Very easy to fall asleep bed comfortable.  Staff was very friendly. Breakfast was hot and ready. Check in and out time worked out perfectly. </t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d10588062-r536080076-Home2_Suites_by_Hilton_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>536080076</t>
+  </si>
+  <si>
+    <t>10/24/2017</t>
+  </si>
+  <si>
+    <t>Home2 Suites a Great Place to Stay</t>
+  </si>
+  <si>
+    <t>Hilton has efficiently compacted everything you need into this wonderful suite! It's not the place for you if you're looking for extreme luxury. These suites are very practical and are well suited for the price. It's clean, comfortable and appointed quite nicely. Great working environment.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d10588062-r533762881-Home2_Suites_by_Hilton_Houston_Stafford-Stafford_Texas.html</t>
   </si>
   <si>
@@ -456,9 +684,6 @@
     <t>Great stay, overall.  The staff was friendly, the complimentary breakfast was an 8 out of 10, and the room was clean, quiet, and very comfortable.  If I were to travel to Houston, again, I'd definitely stay here again!</t>
   </si>
   <si>
-    <t>October 2017</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d10588062-r530370704-Home2_Suites_by_Hilton_Houston_Stafford-Stafford_Texas.html</t>
   </si>
   <si>
@@ -477,6 +702,39 @@
     <t>July 2017</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d10588062-r528386246-Home2_Suites_by_Hilton_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>528386246</t>
+  </si>
+  <si>
+    <t>09/29/2017</t>
+  </si>
+  <si>
+    <t>An Experience to Remember</t>
+  </si>
+  <si>
+    <t>Our stay was excellent. The price was great &amp; the hotel was well worth it. The staff was very friendly. We registered on line &amp; put the wrong date by accident. So we called the hotel &amp; they made the adjustment.</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d10588062-r526586428-Home2_Suites_by_Hilton_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>526586428</t>
+  </si>
+  <si>
+    <t>09/22/2017</t>
+  </si>
+  <si>
+    <t>Best hotel staff around</t>
+  </si>
+  <si>
+    <t>Great helpful and friendly staff along with a really nice new hotel make this a great place to stay for a long term stay. Our group was here for 36 days and treated like family. The two grills out back are kept clean for use, and the rooms are well suited for long term stays.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d10588062-r524536310-Home2_Suites_by_Hilton_Houston_Stafford-Stafford_Texas.html</t>
   </si>
   <si>
@@ -486,15 +744,9 @@
     <t>09/14/2017</t>
   </si>
   <si>
-    <t>Great Stay</t>
-  </si>
-  <si>
     <t>If ever you're in need of a long term stay away from home, Home2 is a great place to call home temporarily! The staff if courteous and pleasant and always willing to go the extra mile o meet your needs</t>
   </si>
   <si>
-    <t>September 2017</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d10588062-r522486092-Home2_Suites_by_Hilton_Houston_Stafford-Stafford_Texas.html</t>
   </si>
   <si>
@@ -526,6 +778,39 @@
   </si>
   <si>
     <t>I don't even know where to start. The first day of my stay was good. We did not really have any problems at first. So our stay was during Hurricane Harvey. My wedding was that Saturday in the area. I also had 5 other couples staying in the same hotel as well the same weekend. Everyone was supposed to go home on that Sunday but we were not able to make it home due to flooding. We were safe, but that was about it. The manager was rude the whole time and not very accommodating to me and my guest. She even went as far to tell one of my guest that she should have never came here if she knew a hurricane was coming. First of all she came earlier in the week and was from out of town. She had no idea that Harvey was going to cause that much damage. Did she really think I wanted to have my wedding during a hurricane???? We ended up and most of my guest staying an extra 2 nights. (not by choice) There was not a break in the price nor no break in her bad attitude. In the mornings not knowing what outside looked like or if we could get back to our homes she would ask, "I need to know if yall leaving, I have other people that need to get a room". There was no sympathy for...I don't even know where to start. The first day of my stay was good. We did not really have any problems at first. So our stay was during Hurricane Harvey. My wedding was that Saturday in the area. I also had 5 other couples staying in the same hotel as well the same weekend. Everyone was supposed to go home on that Sunday but we were not able to make it home due to flooding. We were safe, but that was about it. The manager was rude the whole time and not very accommodating to me and my guest. She even went as far to tell one of my guest that she should have never came here if she knew a hurricane was coming. First of all she came earlier in the week and was from out of town. She had no idea that Harvey was going to cause that much damage. Did she really think I wanted to have my wedding during a hurricane???? We ended up and most of my guest staying an extra 2 nights. (not by choice) There was not a break in the price nor no break in her bad attitude. In the mornings not knowing what outside looked like or if we could get back to our homes she would ask, "I need to know if yall leaving, I have other people that need to get a room". There was no sympathy for our situation. The hotel was nice just not the people.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d10588062-r516525268-Home2_Suites_by_Hilton_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>516525268</t>
+  </si>
+  <si>
+    <t>08/22/2017</t>
+  </si>
+  <si>
+    <t>A Home from Home</t>
+  </si>
+  <si>
+    <t>Home2 Suites really is a home from home, with well-appointed suites and friendly staff. The facilities are very good and the pool is nice. You also get to use a washer and dryer free and they have a fitness room. We enjoyed our stay.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d10588062-r516145421-Home2_Suites_by_Hilton_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>516145421</t>
+  </si>
+  <si>
+    <t>08/21/2017</t>
+  </si>
+  <si>
+    <t>Excellent</t>
+  </si>
+  <si>
+    <t>Well designed and clean building. Walkable food and retail options. Okay breakfast, but it is free so there is that. Really nice facilities. Staff is nice and welcoming. Hotel is pretty. Hotel is right off of the expressway.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d10588062-r515278879-Home2_Suites_by_Hilton_Houston_Stafford-Stafford_Texas.html</t>
@@ -582,6 +867,36 @@
     <t>This place is amazing. Everything is so clean. The staff is friendly and extremely professional. The rooms are great.  This is definitely a place in would visit again. The front area is beautiful and offers a great place to sit or hang out. Its probably amazing when its not so hot outside. I can really say this is a good home away from home</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d10588062-r509910036-Home2_Suites_by_Hilton_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>509910036</t>
+  </si>
+  <si>
+    <t>08/07/2017</t>
+  </si>
+  <si>
+    <t>One night business stay and this was an excellent hotel.</t>
+  </si>
+  <si>
+    <t>Hotel was clean roomy nice and close to my meetings.  The fitness center, pool, staff and overall experience was great!  The hotel smelled fresh when I arrived and the room was just what I needed.  Only stayed one night but would this is a great place for an extended stay due to fridge and great kitchen, etc.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d10588062-r508863832-Home2_Suites_by_Hilton_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>508863832</t>
+  </si>
+  <si>
+    <t>08/04/2017</t>
+  </si>
+  <si>
+    <t>Could not have book a better place</t>
+  </si>
+  <si>
+    <t>I have absolutely nothing negative to say about this place. We were 5hrs out of town on a surprise birthday party and they were very accommodating with an early check in. Staff was very attentive. I will definitely be booking again.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d10588062-r502969134-Home2_Suites_by_Hilton_Houston_Stafford-Stafford_Texas.html</t>
   </si>
   <si>
@@ -642,6 +957,48 @@
     <t>Staff was very nice.  Clean facility.  Digital keys via phone was a fun feature.  Didn't work with fitness center yet, but they are still working on it.  A number of places to eat are very close as well.  Use the exit before if coming from houston.  Movie theater close by.  More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d10588062-r491841183-Home2_Suites_by_Hilton_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>491841183</t>
+  </si>
+  <si>
+    <t>06/09/2017</t>
+  </si>
+  <si>
+    <t>Couldn't ask for more!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Everything was immaculately perfect and clean . The bed was very comfortable and nice. Staff was very accommodating and friendly. The rooms are clean and fully featured . I will recommend this property to my business partner and family / friends . </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d10588062-r490159985-Home2_Suites_by_Hilton_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>490159985</t>
+  </si>
+  <si>
+    <t>06/03/2017</t>
+  </si>
+  <si>
+    <t>Prom night stay</t>
+  </si>
+  <si>
+    <t>Excellent room spacious and had a full stocked kitchen. Staff was helpful at all hours. Bed was comfortable. And room had adequate light for my daughter to have her makeup done for her prom that night. MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>Sonya D, General Manager at Home2 Suites by Hilton Houston Stafford, responded to this reviewResponded June 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 4, 2017</t>
+  </si>
+  <si>
+    <t>Excellent room spacious and had a full stocked kitchen. Staff was helpful at all hours. Bed was comfortable. And room had adequate light for my daughter to have her makeup done for her prom that night. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d10588062-r489272302-Home2_Suites_by_Hilton_Houston_Stafford-Stafford_Texas.html</t>
   </si>
   <si>
@@ -657,18 +1014,6 @@
     <t>I highly recommend this hotel.  Top of the line quality of service received from staff is exceptionally rare. Friendly, knowledgeable staff - over the top pleasing and engaging.  I don't have 200 words to say how impressed I am with the quality of fabulous service.MoreShow less</t>
   </si>
   <si>
-    <t>May 2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
-    <t>Sonya D, General Manager at Home2 Suites by Hilton Houston Stafford, responded to this reviewResponded June 4, 2017</t>
-  </si>
-  <si>
-    <t>Responded June 4, 2017</t>
-  </si>
-  <si>
     <t>I highly recommend this hotel.  Top of the line quality of service received from staff is exceptionally rare. Friendly, knowledgeable staff - over the top pleasing and engaging.  I don't have 200 words to say how impressed I am with the quality of fabulous service.More</t>
   </si>
   <si>
@@ -708,6 +1053,48 @@
     <t>Enjoyed a brief stay at this hotel.  All of the employees we spoke with were very friendly. and the folks at the front desk were very accommodating. I used the HHonors app to select my room and opted for the digital key.  A small issue with the key but it didn't impact our stay.  The room was spacious and still had that new hotel smell to it. The bed is extremely comfortable and made for great sleeping.  Never heard our neighbors which is always nice. Other than grabbing an occasional coffee, I can't speak about the breakfast. I would not hesitate to stay here again.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d10588062-r485461430-Home2_Suites_by_Hilton_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>485461430</t>
+  </si>
+  <si>
+    <t>05/18/2017</t>
+  </si>
+  <si>
+    <t>Lack of food choices</t>
+  </si>
+  <si>
+    <t>Our third stay at Home2 Suites was not a charm – which we were expecting. Our weekend Saturday and Sunday meals were leftovers at best. Saturday we only had a choice of 1 heated meal and 1 heated sandwich. Sunday we had a ‘choice” of only 1 heated sandwich. Sunday = no bananas, literally. Did someone not order for the weekend? Our other 2 stays included several heated choices. Also, the staff personality was OK but not very friendly or engaging.MoreShow less</t>
+  </si>
+  <si>
+    <t>Our third stay at Home2 Suites was not a charm – which we were expecting. Our weekend Saturday and Sunday meals were leftovers at best. Saturday we only had a choice of 1 heated meal and 1 heated sandwich. Sunday we had a ‘choice” of only 1 heated sandwich. Sunday = no bananas, literally. Did someone not order for the weekend? Our other 2 stays included several heated choices. Also, the staff personality was OK but not very friendly or engaging.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d10588062-r483309926-Home2_Suites_by_Hilton_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>483309926</t>
+  </si>
+  <si>
+    <t>05/10/2017</t>
+  </si>
+  <si>
+    <t>Great experience!!</t>
+  </si>
+  <si>
+    <t>Hotel is great and staff is very welcoming! Sleek modern and clean hotel rooms. Great quality for the price. This hotel exceeded my expectations. Beautiful and clean public areas. Staff is very accommodating! MoreShow less</t>
+  </si>
+  <si>
+    <t>Sonya D, General Manager at Home2 Suites by Hilton Houston Stafford, responded to this reviewResponded May 23, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 23, 2017</t>
+  </si>
+  <si>
+    <t>Hotel is great and staff is very welcoming! Sleek modern and clean hotel rooms. Great quality for the price. This hotel exceeded my expectations. Beautiful and clean public areas. Staff is very accommodating! More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d10588062-r482249571-Home2_Suites_by_Hilton_Houston_Stafford-Stafford_Texas.html</t>
   </si>
   <si>
@@ -777,6 +1164,39 @@
     <t>The pool was dirty. Bug on hotel bed. Restroom doors don't close properly. Needed 4 tries to make my room key work. I had to bring keys back to counter every time.Staff is Herz friendly but value was not there to me.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d10588062-r477110323-Home2_Suites_by_Hilton_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>477110323</t>
+  </si>
+  <si>
+    <t>04/18/2017</t>
+  </si>
+  <si>
+    <t>AWESOME EXPERIENCE</t>
+  </si>
+  <si>
+    <t>I cannot say enough about this hotel. It was quiet, clean, affordable. The staff was very accommodating while at the same time, not bothersome. We will definitely stay there again when we visit Stafford.MoreShow less</t>
+  </si>
+  <si>
+    <t>I cannot say enough about this hotel. It was quiet, clean, affordable. The staff was very accommodating while at the same time, not bothersome. We will definitely stay there again when we visit Stafford.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d10588062-r473072430-Home2_Suites_by_Hilton_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>473072430</t>
+  </si>
+  <si>
+    <t>04/05/2017</t>
+  </si>
+  <si>
+    <t>I'd do it all over again!</t>
+  </si>
+  <si>
+    <t>I am truly a weekend vacationer and I couldn't have chosen a better place to stay.  The staff was simply awesome, so polite and genuine; I know we all have bad days butPlease keep this up and don't let the great service die the older the hotel gets!!</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d10588062-r471012490-Home2_Suites_by_Hilton_Houston_Stafford-Stafford_Texas.html</t>
   </si>
   <si>
@@ -828,6 +1248,45 @@
     <t>My stay at the Home  Suites by Hilton made me feel at home!  Hotel room was clean and staff was very professional.  Breakfast in the morning had a variety of food.  Rooms are large and had all the accommodations.  Refrig./microwave/stove/dishwasher.  Everything you need to make a stay comfortable.  Just like Home!</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d10588062-r468715993-Home2_Suites_by_Hilton_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>468715993</t>
+  </si>
+  <si>
+    <t>03/19/2017</t>
+  </si>
+  <si>
+    <t>Hilton Home2</t>
+  </si>
+  <si>
+    <t>Excellent hotel that is brand new and clean and comfortable.  Very happy with the rate and convenient location.  Would like to see some snacks and drinks available in the evenings, but the breakfast was good.  I would recommend this hotel and do plan to stay again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d10588062-r467121768-Home2_Suites_by_Hilton_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>467121768</t>
+  </si>
+  <si>
+    <t>03/13/2017</t>
+  </si>
+  <si>
+    <t>Clean, new, near restaurants</t>
+  </si>
+  <si>
+    <t>Next to movie theaters and many fast food and regular places to eat. Lots of places to walk or run. Small functional kitchen in suite. Friendly staff. Nice walkin shower. Small gym. Part of Hilton brand.MoreShow less</t>
+  </si>
+  <si>
+    <t>Sonya D, General Manager at Home2 Suites by Hilton Houston Stafford, responded to this reviewResponded March 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 17, 2017</t>
+  </si>
+  <si>
+    <t>Next to movie theaters and many fast food and regular places to eat. Lots of places to walk or run. Small functional kitchen in suite. Friendly staff. Nice walkin shower. Small gym. Part of Hilton brand.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d10588062-r465701139-Home2_Suites_by_Hilton_Houston_Stafford-Stafford_Texas.html</t>
   </si>
   <si>
@@ -843,12 +1302,6 @@
     <t>The hotel is nice and centrally located around shopping and dining.  Be advised if the  rooms are only equipped with a king sized bed and a pull out sofa. So a family of four or more will not be accommodated well in one room.MoreShow less</t>
   </si>
   <si>
-    <t>Sonya D, General Manager at Home2 Suites by Hilton Houston Stafford, responded to this reviewResponded March 17, 2017</t>
-  </si>
-  <si>
-    <t>Responded March 17, 2017</t>
-  </si>
-  <si>
     <t>The hotel is nice and centrally located around shopping and dining.  Be advised if the  rooms are only equipped with a king sized bed and a pull out sofa. So a family of four or more will not be accommodated well in one room.More</t>
   </si>
   <si>
@@ -885,6 +1338,51 @@
     <t>I had a short stay for a wedding. The early check in was super helpful. I found the digital key to be great and handy. The location was superb. The only thing I would fix is the complimentary breakfast, which did not have many options. But I would definitely stay again.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d10588062-r458094774-Home2_Suites_by_Hilton_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>458094774</t>
+  </si>
+  <si>
+    <t>02/08/2017</t>
+  </si>
+  <si>
+    <t>The best!</t>
+  </si>
+  <si>
+    <t>I really don't know where to start since I have nothing but positive things to say about my stay at this hotel during the Super bowl.  First of all, the hotel is new and very, very clean, comfortable, and nice. While a lot of the hotels were gouging this hotel remained at a good rate and trust me comparing to others, it was at an excellent rate.  The staff went up, beyond and out of the way for us including providing us with a ride to a concert that we attended on Saturday night.  To top it off there was a super bowl party in the lobby on Sunday that must have had the best "FREE" food in the whole Houston, TX.  Did you hear me?  Free....I don't want to list the foods because I started my diet today and I don't want to have a relapse.  I just appreciated the special attention from the moment my road partner and I checked in to the time we checked out.  Kudos to Ms. Nickie and Shon and all the crew.  Please, please keep the standards up so that the next time I come back to Texas, I'll know exactly where to come.  You guys were the best!MoreShow less</t>
+  </si>
+  <si>
+    <t>Sonya D, General Manager at Home2 Suites by Hilton Houston Stafford, responded to this reviewResponded February 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 20, 2017</t>
+  </si>
+  <si>
+    <t>I really don't know where to start since I have nothing but positive things to say about my stay at this hotel during the Super bowl.  First of all, the hotel is new and very, very clean, comfortable, and nice. While a lot of the hotels were gouging this hotel remained at a good rate and trust me comparing to others, it was at an excellent rate.  The staff went up, beyond and out of the way for us including providing us with a ride to a concert that we attended on Saturday night.  To top it off there was a super bowl party in the lobby on Sunday that must have had the best "FREE" food in the whole Houston, TX.  Did you hear me?  Free....I don't want to list the foods because I started my diet today and I don't want to have a relapse.  I just appreciated the special attention from the moment my road partner and I checked in to the time we checked out.  Kudos to Ms. Nickie and Shon and all the crew.  Please, please keep the standards up so that the next time I come back to Texas, I'll know exactly where to come.  You guys were the best!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d10588062-r456857753-Home2_Suites_by_Hilton_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>456857753</t>
+  </si>
+  <si>
+    <t>02/03/2017</t>
+  </si>
+  <si>
+    <t>No sleep</t>
+  </si>
+  <si>
+    <t>Pillows are so soft and thin they are pointless. Kids screaming and slamming Doors is not conducive to sleep. In ability of hotel staff to mute fire alarm when water pipe broke was the final straw,.....8 hours sleep in 4 days is not good.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>Pillows are so soft and thin they are pointless. Kids screaming and slamming Doors is not conducive to sleep. In ability of hotel staff to mute fire alarm when water pipe broke was the final straw,.....8 hours sleep in 4 days is not good.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d10588062-r455718120-Home2_Suites_by_Hilton_Houston_Stafford-Stafford_Texas.html</t>
   </si>
   <si>
@@ -900,9 +1398,6 @@
     <t xml:space="preserve">Stayed for a few days for a business trip. Great beds and Kitchen area is nice.  Wish you could purchase a bottle of wine or beer to take to the room.  The breakfast is very basic, so if your hungry or thirsty , definitely need to leave the hotel.  They were bad at refilling my coffee in my room. </t>
   </si>
   <si>
-    <t>January 2017</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d10588062-r455410983-Home2_Suites_by_Hilton_Houston_Stafford-Stafford_Texas.html</t>
   </si>
   <si>
@@ -918,12 +1413,6 @@
     <t>Let me first say that this Hilton Property is very new, meaning a few months old... so everything is sparkly and new. The property is in an excellent location, situated right off of HWY 59/69 near The Fountains in Stafford,TX. The hotel is nicely appointed with a business center, excellent gym, and believe it or not free guest Laundry! The free breakfast to me was the icing on the cake, the staff is very friendly and will assist you with whatever your needs require. I was here for an extended stay and the staff made it a pleasurable one. This hotel is very pet friendly. Anything one would like to do is located nearby. There is an AMC theatre directly next door. There are countless restaurants within walking distance. There is also a park a 1/2 mile from the hotel which is really nice. The suites are nicely done and the bed sleeps like a dream. There is a full refrigerator so it's wonderful that you can buy groceries and cook if wanted. There is a Main Event in the general area as well as my personal favorite eatery Razzo's... you will not be disappointed if you book here! MoreShow less</t>
   </si>
   <si>
-    <t>Sonya D, General Manager at Home2 Suites by Hilton Houston Stafford, responded to this reviewResponded February 20, 2017</t>
-  </si>
-  <si>
-    <t>Responded February 20, 2017</t>
-  </si>
-  <si>
     <t>Let me first say that this Hilton Property is very new, meaning a few months old... so everything is sparkly and new. The property is in an excellent location, situated right off of HWY 59/69 near The Fountains in Stafford,TX. The hotel is nicely appointed with a business center, excellent gym, and believe it or not free guest Laundry! The free breakfast to me was the icing on the cake, the staff is very friendly and will assist you with whatever your needs require. I was here for an extended stay and the staff made it a pleasurable one. This hotel is very pet friendly. Anything one would like to do is located nearby. There is an AMC theatre directly next door. There are countless restaurants within walking distance. There is also a park a 1/2 mile from the hotel which is really nice. The suites are nicely done and the bed sleeps like a dream. There is a full refrigerator so it's wonderful that you can buy groceries and cook if wanted. There is a Main Event in the general area as well as my personal favorite eatery Razzo's... you will not be disappointed if you book here! More</t>
   </si>
   <si>
@@ -951,6 +1440,48 @@
     <t>This was my first experience with Home2. Overall I really enjoyed my stay here. The rooms were very spacious and comfortable. The facility was very nice and clean. Highly recommend and would definitely stay again.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d10588062-r452501005-Home2_Suites_by_Hilton_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>452501005</t>
+  </si>
+  <si>
+    <t>01/16/2017</t>
+  </si>
+  <si>
+    <t>Best Care ever</t>
+  </si>
+  <si>
+    <t>Great team of caring professionals.  Outstanding property managed by a caring and attentive staff.  The individual staff property were kinfgratrdsnd helpful my wife and iss we traveled to Housyn  for medical treatentv MoreShow less</t>
+  </si>
+  <si>
+    <t>Sonya D, General Manager at Home2 Suites by Hilton Houston Stafford, responded to this reviewResponded January 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 28, 2017</t>
+  </si>
+  <si>
+    <t>Great team of caring professionals.  Outstanding property managed by a caring and attentive staff.  The individual staff property were kinfgratrdsnd helpful my wife and iss we traveled to Housyn  for medical treatentv More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d10588062-r450607340-Home2_Suites_by_Hilton_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>450607340</t>
+  </si>
+  <si>
+    <t>01/08/2017</t>
+  </si>
+  <si>
+    <t>Eco Friendly but</t>
+  </si>
+  <si>
+    <t>There was nothing wrong with this hotel except that it was average.  Average isn't what I expect from a Hilton property.  The sheets were the best part of my stay.  The room had a nice sofa area, kitchenette and bath room but there were no personal toiletries like at most hotels.  Instead there were dispensers in the shower with pre-filled shampoo &amp; body wash.  They also had recycling trash cans in room.  The room overall had a very modern feel to it.  There was also a breakfast buffet but I all I saw was a waffle maker, yogurt and some fruit.MoreShow less</t>
+  </si>
+  <si>
+    <t>There was nothing wrong with this hotel except that it was average.  Average isn't what I expect from a Hilton property.  The sheets were the best part of my stay.  The room had a nice sofa area, kitchenette and bath room but there were no personal toiletries like at most hotels.  Instead there were dispensers in the shower with pre-filled shampoo &amp; body wash.  They also had recycling trash cans in room.  The room overall had a very modern feel to it.  There was also a breakfast buffet but I all I saw was a waffle maker, yogurt and some fruit.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d10588062-r448267391-Home2_Suites_by_Hilton_Houston_Stafford-Stafford_Texas.html</t>
   </si>
   <si>
@@ -1023,6 +1554,48 @@
     <t>I came there for business for two nights and the stay was impeccable. I am a I woke up the first morning and went to  breakfast was greeting with such a sincere and warm welcome from the breakfast lady and the front desk agent Laporsha. The rooms were very clean and spacious. With me the smallest things is what really count... The extra miles Laporsha went for me the morning of my checkout was very thoughtful. She observed and remembered my conversation the previous morning. As I was rushing out to the airport she had fresh coffee waiting on me (at 330am). She and all the staff i came in contact with was friendly and professional. If I ever get any more gigs in the Stafford Area I know exactly where I will be staying. Thanks Again for the wonderful Hospitality.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d10588062-r440795604-Home2_Suites_by_Hilton_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>440795604</t>
+  </si>
+  <si>
+    <t>11/28/2016</t>
+  </si>
+  <si>
+    <t>IF you like NEON GREEN-Walls,Carpet,EVERYTHING</t>
+  </si>
+  <si>
+    <t>This is the most poorly decorated facility of Hilton I have ever visited. Disgusting. The Neon green is everywhere- walls/bedboard/bed skrit/carpet- YOU CAN:T GET AWAY!  Not peaceful/restful- Not a home like feeling.MoreShow less</t>
+  </si>
+  <si>
+    <t>This is the most poorly decorated facility of Hilton I have ever visited. Disgusting. The Neon green is everywhere- walls/bedboard/bed skrit/carpet- YOU CAN:T GET AWAY!  Not peaceful/restful- Not a home like feeling.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d10588062-r439601674-Home2_Suites_by_Hilton_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>439601674</t>
+  </si>
+  <si>
+    <t>11/23/2016</t>
+  </si>
+  <si>
+    <t>Excellent Stay!</t>
+  </si>
+  <si>
+    <t>I recently stayed at this new hotel and was extremely happy with the quality of stay, quality of service by the staff and the proximity to everything!  I was constantly greeted by a different member of the staff, while also asked if I ever needed anything.  Staff was gracious, and more than hospitable.  The rooms were large, bed was extremely comfortable and there were plug outlets in the most convenient spots in the rooom!  They have walk-in showers with dispensers of Neutrogena shampoo and body wash, so you never run out of body wash or shampoo.  Quality hotel and I plan on staying there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Sonya D, General Manager at Home2 Suites by Hilton Houston Stafford, responded to this reviewResponded November 25, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 25, 2016</t>
+  </si>
+  <si>
+    <t>I recently stayed at this new hotel and was extremely happy with the quality of stay, quality of service by the staff and the proximity to everything!  I was constantly greeted by a different member of the staff, while also asked if I ever needed anything.  Staff was gracious, and more than hospitable.  The rooms were large, bed was extremely comfortable and there were plug outlets in the most convenient spots in the rooom!  They have walk-in showers with dispensers of Neutrogena shampoo and body wash, so you never run out of body wash or shampoo.  Quality hotel and I plan on staying there again.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d10588062-r438864204-Home2_Suites_by_Hilton_Houston_Stafford-Stafford_Texas.html</t>
   </si>
   <si>
@@ -1038,12 +1611,6 @@
     <t>Stayed for over a month on business.  Facility is almost new and the rooms are nice.  Bed, pillows, and sheets are excellent quality and very comfortable.  Staff are very friendly and professional.  I shopped around and looked at the rooms in several of the suite type extended stay places nearby and this was way nicer than all the others except one which was way more expensive. I am staying here again in December and will stay again whenever business brings me to the area. MoreShow less</t>
   </si>
   <si>
-    <t>Sonya D, General Manager at Home2 Suites by Hilton Houston Stafford, responded to this reviewResponded November 25, 2016</t>
-  </si>
-  <si>
-    <t>Responded November 25, 2016</t>
-  </si>
-  <si>
     <t>Stayed for over a month on business.  Facility is almost new and the rooms are nice.  Bed, pillows, and sheets are excellent quality and very comfortable.  Staff are very friendly and professional.  I shopped around and looked at the rooms in several of the suite type extended stay places nearby and this was way nicer than all the others except one which was way more expensive. I am staying here again in December and will stay again whenever business brings me to the area. More</t>
   </si>
   <si>
@@ -1095,6 +1662,45 @@
     <t>New hotel, very pleasurable experience. Nice modern suites, friendly staff, great breakfast. Convenient to Sugar Land as well as Houston. Located in the fountains which is great shopping, eating and entertainment. Great value!!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d10588062-r436459063-Home2_Suites_by_Hilton_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>436459063</t>
+  </si>
+  <si>
+    <t>11/11/2016</t>
+  </si>
+  <si>
+    <t>Far exceeded my expectations</t>
+  </si>
+  <si>
+    <t>this was my first time at this property but will not be my last. Everything was perfect for me. I have stayed head Hilton properties before and I'm quite familiar with the brand. The property is fairly new and that may have added to the freshness but I'm sure they intend to maintain that level.MoreShow less</t>
+  </si>
+  <si>
+    <t>Sonya D, General Manager at Home2 Suites by Hilton Houston Stafford, responded to this reviewResponded November 17, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 17, 2016</t>
+  </si>
+  <si>
+    <t>this was my first time at this property but will not be my last. Everything was perfect for me. I have stayed head Hilton properties before and I'm quite familiar with the brand. The property is fairly new and that may have added to the freshness but I'm sure they intend to maintain that level.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d10588062-r436446128-Home2_Suites_by_Hilton_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>436446128</t>
+  </si>
+  <si>
+    <t>Wonderful Home Sweet Home</t>
+  </si>
+  <si>
+    <t>MY family and I loved the staff..Housekeeping in friendly and the front desk ladies are great. Staying there felt like a mini home away from home. We were visiting while waiting for  closing on our home, while trying to keep our normal routine. It was just what we needed.MoreShow less</t>
+  </si>
+  <si>
+    <t>MY family and I loved the staff..Housekeeping in friendly and the front desk ladies are great. Staying there felt like a mini home away from home. We were visiting while waiting for  closing on our home, while trying to keep our normal routine. It was just what we needed.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d10588062-r435512532-Home2_Suites_by_Hilton_Houston_Stafford-Stafford_Texas.html</t>
   </si>
   <si>
@@ -1110,12 +1716,6 @@
     <t>Great hotel for extended stays with kitchen; however, my stay was a quick one night.  I like the fact that the hotel operates "green" for the environment.  Staff friendly and accommodating.   I've stayed at several Home2 locations, and this one lives up to the brand.MoreShow less</t>
   </si>
   <si>
-    <t>Sonya D, General Manager at Home2 Suites by Hilton Houston Stafford, responded to this reviewResponded November 17, 2016</t>
-  </si>
-  <si>
-    <t>Responded November 17, 2016</t>
-  </si>
-  <si>
     <t>Great hotel for extended stays with kitchen; however, my stay was a quick one night.  I like the fact that the hotel operates "green" for the environment.  Staff friendly and accommodating.   I've stayed at several Home2 locations, and this one lives up to the brand.More</t>
   </si>
   <si>
@@ -1167,15 +1767,48 @@
     <t>We waited 30 minutes to check in at 2AM when there's nobody else that's checking in. The employee didn't know how to check us in! When we got to our room, it was dirty! We had to wait again to check in to another room! The employee messed up our rate because she didn't know what she was doing! Instead of paying the employee rate, she charged us the regular rate so when we checked out it was wrong so we had to wait another 30 minutes even at check out! We had to call the supervisor who was rude 3x for her to email our receipts because she couldn't figure it out either how to give our money back! It was so inconvenient to have our credit card charged so much money which was wrong and then call so many times asking for our receipt. Our stay was a nightmare and the employees at this hotel didn't know how to do their jobs and rude. This is the worst hotel experience ever!!!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d10588062-r430773838-Home2_Suites_by_Hilton_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>430773838</t>
+  </si>
+  <si>
+    <t>10/22/2016</t>
+  </si>
+  <si>
+    <t>Choose this hotel!</t>
+  </si>
+  <si>
+    <t>The room was much nicer than expected. The little kitchen was a definite plus! The hotel was very clean, and the staff were very nice and helpful. The premium internet was a bit slow on the second and third devices, but this is no reason not to stay here. Overall, this was an excellent experience! Very comfortable!MoreShow less</t>
+  </si>
+  <si>
+    <t>The room was much nicer than expected. The little kitchen was a definite plus! The hotel was very clean, and the staff were very nice and helpful. The premium internet was a bit slow on the second and third devices, but this is no reason not to stay here. Overall, this was an excellent experience! Very comfortable!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d10588062-r428787717-Home2_Suites_by_Hilton_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>428787717</t>
+  </si>
+  <si>
+    <t>10/17/2016</t>
+  </si>
+  <si>
+    <t>Excellent service . Very friendly staff. Nice new clean rooms . I will be back .</t>
+  </si>
+  <si>
+    <t>Excellent service throughout my stay  . I found the staff to be very friendly staff .My room was very and clean . I thought the location to shopping , movie theater , and resturants was excellent . I will be back .  MoreShow less</t>
+  </si>
+  <si>
+    <t>Excellent service throughout my stay  . I found the staff to be very friendly staff .My room was very and clean . I thought the location to shopping , movie theater , and resturants was excellent . I will be back .  More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d10588062-r429049850-Home2_Suites_by_Hilton_Houston_Stafford-Stafford_Texas.html</t>
   </si>
   <si>
     <t>429049850</t>
   </si>
   <si>
-    <t>10/17/2016</t>
-  </si>
-  <si>
     <t>Great service, beautiful hotel</t>
   </si>
   <si>
@@ -1213,6 +1846,42 @@
   </si>
   <si>
     <t>I stayed here for two nights and this is my second time to stay in this brand of hotel.  I have no issues, but would recommend a deeper pool and a rowing machine for the exercise room.  Staff was nice, room was clean, and breakfast was good too.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d10588062-r421435498-Home2_Suites_by_Hilton_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>421435498</t>
+  </si>
+  <si>
+    <t>09/22/2016</t>
+  </si>
+  <si>
+    <t>Great Trip</t>
+  </si>
+  <si>
+    <t>Nice place to stay. Very clean and the staff was great. Very accommodating to any requests that I made. The young lady at the front desk in the evening was great. She helped me with a couple of things and I felt like that she was happy to do it.</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d10588062-r402245204-Home2_Suites_by_Hilton_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>402245204</t>
+  </si>
+  <si>
+    <t>08/06/2016</t>
+  </si>
+  <si>
+    <t>Awesome Stay</t>
+  </si>
+  <si>
+    <t>It's a brand new hotel in Town.  Must stay at new hotel in Stafford/Sugar Land Visit.We had a great time with new amenities and customer service was excellent.  If you are planning to visit i would highly recommend this place.</t>
+  </si>
+  <si>
+    <t>August 2016</t>
   </si>
 </sst>
 </file>
@@ -1756,13 +2425,13 @@
         <v>53</v>
       </c>
       <c r="P2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q2" t="n">
         <v>5</v>
       </c>
       <c r="R2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S2" t="n">
         <v>5</v>
@@ -1774,10 +2443,14 @@
       <c r="V2" t="n">
         <v>0</v>
       </c>
-      <c r="W2" t="s"/>
-      <c r="X2" t="s"/>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
@@ -1793,7 +2466,7 @@
         <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G3" t="s">
         <v>46</v>
@@ -1802,25 +2475,25 @@
         <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="O3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="P3" t="n">
         <v>5</v>
@@ -1841,10 +2514,14 @@
       <c r="V3" t="n">
         <v>0</v>
       </c>
-      <c r="W3" t="s"/>
-      <c r="X3" t="s"/>
+      <c r="W3" t="s">
+        <v>54</v>
+      </c>
+      <c r="X3" t="s">
+        <v>55</v>
+      </c>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
@@ -1860,7 +2537,7 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
@@ -1869,49 +2546,53 @@
         <v>47</v>
       </c>
       <c r="I4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
         <v>62</v>
       </c>
-      <c r="J4" t="s">
-        <v>63</v>
-      </c>
-      <c r="K4" t="s">
-        <v>64</v>
-      </c>
-      <c r="L4" t="s">
-        <v>65</v>
-      </c>
-      <c r="M4" t="n">
-        <v>4</v>
-      </c>
-      <c r="N4" t="s">
-        <v>59</v>
-      </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="P4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T4" t="s"/>
       <c r="U4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
-      <c r="W4" t="s"/>
-      <c r="X4" t="s"/>
+      <c r="W4" t="s">
+        <v>54</v>
+      </c>
+      <c r="X4" t="s">
+        <v>55</v>
+      </c>
       <c r="Y4" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5">
@@ -1927,7 +2608,7 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
@@ -1936,25 +2617,25 @@
         <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="J5" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="K5" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="L5" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="O5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="P5" t="n">
         <v>5</v>
@@ -1975,10 +2656,14 @@
       <c r="V5" t="n">
         <v>0</v>
       </c>
-      <c r="W5" t="s"/>
-      <c r="X5" t="s"/>
+      <c r="W5" t="s">
+        <v>54</v>
+      </c>
+      <c r="X5" t="s">
+        <v>55</v>
+      </c>
       <c r="Y5" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6">
@@ -1994,7 +2679,7 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s">
         <v>46</v>
@@ -2003,22 +2688,22 @@
         <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="J6" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="K6" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="L6" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="O6" t="s">
         <v>53</v>
@@ -2042,10 +2727,14 @@
       <c r="V6" t="n">
         <v>0</v>
       </c>
-      <c r="W6" t="s"/>
-      <c r="X6" t="s"/>
+      <c r="W6" t="s">
+        <v>54</v>
+      </c>
+      <c r="X6" t="s">
+        <v>55</v>
+      </c>
       <c r="Y6" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7">
@@ -2061,7 +2750,7 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G7" t="s">
         <v>46</v>
@@ -2070,49 +2759,53 @@
         <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="J7" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="K7" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="L7" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="M7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="O7" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="P7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T7" t="s"/>
       <c r="U7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
-      <c r="W7" t="s"/>
-      <c r="X7" t="s"/>
+      <c r="W7" t="s">
+        <v>54</v>
+      </c>
+      <c r="X7" t="s">
+        <v>55</v>
+      </c>
       <c r="Y7" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8">
@@ -2128,7 +2821,7 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
@@ -2137,41 +2830,41 @@
         <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="J8" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="K8" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="L8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="M8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="O8" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="P8" t="n">
         <v>4</v>
       </c>
       <c r="Q8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R8" t="n">
         <v>4</v>
       </c>
       <c r="S8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -2179,7 +2872,7 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9">
@@ -2195,7 +2888,7 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
@@ -2204,38 +2897,34 @@
         <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="J9" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="K9" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="L9" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="M9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="O9" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="P9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q9" t="n">
-        <v>5</v>
-      </c>
-      <c r="R9" t="n">
-        <v>5</v>
-      </c>
-      <c r="S9" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
         <v>5</v>
@@ -2246,7 +2935,7 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10">
@@ -2262,7 +2951,7 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -2271,29 +2960,35 @@
         <v>47</v>
       </c>
       <c r="I10" t="s">
+        <v>102</v>
+      </c>
+      <c r="J10" t="s">
+        <v>103</v>
+      </c>
+      <c r="K10" t="s">
+        <v>104</v>
+      </c>
+      <c r="L10" t="s">
+        <v>105</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
         <v>96</v>
       </c>
-      <c r="J10" t="s">
-        <v>97</v>
-      </c>
-      <c r="K10" t="s">
-        <v>98</v>
-      </c>
-      <c r="L10" t="s">
-        <v>99</v>
-      </c>
-      <c r="M10" t="n">
-        <v>5</v>
-      </c>
-      <c r="N10" t="s">
-        <v>89</v>
-      </c>
       <c r="O10" t="s">
-        <v>83</v>
-      </c>
-      <c r="P10" t="s"/>
-      <c r="Q10" t="s"/>
-      <c r="R10" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
       <c r="S10" t="n">
         <v>5</v>
       </c>
@@ -2307,7 +3002,7 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11">
@@ -2323,7 +3018,7 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
@@ -2332,34 +3027,38 @@
         <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="J11" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="K11" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="L11" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
-      </c>
-      <c r="P11" t="s"/>
+        <v>63</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
       <c r="Q11" t="n">
         <v>5</v>
       </c>
       <c r="R11" t="n">
         <v>5</v>
       </c>
-      <c r="S11" t="s"/>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
         <v>5</v>
@@ -2370,7 +3069,7 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12">
@@ -2386,7 +3085,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
@@ -2395,16 +3094,16 @@
         <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="J12" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="K12" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="L12" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
@@ -2413,7 +3112,7 @@
         <v>111</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="P12" t="n">
         <v>5</v>
@@ -2437,7 +3136,7 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13">
@@ -2453,7 +3152,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -2462,16 +3161,16 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="J13" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="K13" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="L13" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
@@ -2482,8 +3181,12 @@
       <c r="O13" t="s">
         <v>53</v>
       </c>
-      <c r="P13" t="s"/>
-      <c r="Q13" t="s"/>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
       <c r="R13" t="n">
         <v>4</v>
       </c>
@@ -2500,7 +3203,7 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14">
@@ -2516,7 +3219,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -2525,49 +3228,39 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="J14" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="K14" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="L14" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="O14" t="s">
-        <v>83</v>
-      </c>
-      <c r="P14" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>5</v>
-      </c>
-      <c r="R14" t="n">
-        <v>5</v>
-      </c>
-      <c r="S14" t="n">
-        <v>5</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="n">
-        <v>5</v>
-      </c>
+      <c r="U14" t="s"/>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15">
@@ -2583,7 +3276,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -2592,41 +3285,41 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="J15" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="K15" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="L15" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="O15" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="P15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q15" t="n">
         <v>5</v>
       </c>
       <c r="R15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S15" t="n">
         <v>5</v>
       </c>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -2634,7 +3327,7 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16">
@@ -2650,34 +3343,34 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
+        <v>133</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>134</v>
+      </c>
+      <c r="J16" t="s">
         <v>129</v>
       </c>
-      <c r="G16" t="s">
-        <v>46</v>
-      </c>
-      <c r="H16" t="s">
-        <v>47</v>
-      </c>
-      <c r="I16" t="s">
-        <v>130</v>
-      </c>
-      <c r="J16" t="s">
-        <v>131</v>
-      </c>
       <c r="K16" t="s">
+        <v>135</v>
+      </c>
+      <c r="L16" t="s">
+        <v>136</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
         <v>132</v>
       </c>
-      <c r="L16" t="s">
-        <v>133</v>
-      </c>
-      <c r="M16" t="n">
-        <v>5</v>
-      </c>
-      <c r="N16" t="s">
-        <v>123</v>
-      </c>
       <c r="O16" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="P16" t="n">
         <v>5</v>
@@ -2701,7 +3394,7 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17">
@@ -2717,7 +3410,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -2726,41 +3419,35 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="J17" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="K17" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="L17" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="M17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="O17" t="s">
-        <v>140</v>
-      </c>
-      <c r="P17" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>4</v>
-      </c>
-      <c r="R17" t="n">
-        <v>4</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
       <c r="S17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -2768,7 +3455,7 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18">
@@ -2784,7 +3471,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -2793,25 +3480,25 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="J18" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K18" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L18" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="O18" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="P18" t="n">
         <v>5</v>
@@ -2827,7 +3514,7 @@
       </c>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2835,7 +3522,7 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="19">
@@ -2851,7 +3538,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -2860,37 +3547,35 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
+        <v>150</v>
+      </c>
+      <c r="J19" t="s">
+        <v>151</v>
+      </c>
+      <c r="K19" t="s">
+        <v>152</v>
+      </c>
+      <c r="L19" t="s">
+        <v>153</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
         <v>148</v>
       </c>
-      <c r="J19" t="s">
-        <v>149</v>
-      </c>
-      <c r="K19" t="s">
-        <v>150</v>
-      </c>
-      <c r="L19" t="s">
-        <v>151</v>
-      </c>
-      <c r="M19" t="n">
-        <v>4</v>
-      </c>
-      <c r="N19" t="s">
-        <v>152</v>
-      </c>
       <c r="O19" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
       <c r="R19" t="n">
         <v>5</v>
       </c>
-      <c r="S19" t="n">
-        <v>4</v>
-      </c>
+      <c r="S19" t="s"/>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2898,7 +3583,7 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20">
@@ -2914,7 +3599,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -2923,38 +3608,34 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="J20" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K20" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="L20" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="O20" t="s">
-        <v>60</v>
-      </c>
-      <c r="P20" t="n">
-        <v>5</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="P20" t="s"/>
       <c r="Q20" t="n">
         <v>5</v>
       </c>
       <c r="R20" t="n">
-        <v>4</v>
-      </c>
-      <c r="S20" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S20" t="s"/>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
         <v>5</v>
@@ -2965,7 +3646,7 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="21">
@@ -2981,7 +3662,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -2990,25 +3671,25 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J21" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K21" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L21" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="O21" t="s">
-        <v>140</v>
+        <v>63</v>
       </c>
       <c r="P21" t="n">
         <v>5</v>
@@ -3032,7 +3713,7 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="22">
@@ -3048,7 +3729,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -3057,41 +3738,37 @@
         <v>47</v>
       </c>
       <c r="I22" t="s">
+        <v>167</v>
+      </c>
+      <c r="J22" t="s">
+        <v>168</v>
+      </c>
+      <c r="K22" t="s">
+        <v>169</v>
+      </c>
+      <c r="L22" t="s">
+        <v>170</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
         <v>165</v>
       </c>
-      <c r="J22" t="s">
-        <v>166</v>
-      </c>
-      <c r="K22" t="s">
-        <v>167</v>
-      </c>
-      <c r="L22" t="s">
-        <v>168</v>
-      </c>
-      <c r="M22" t="n">
-        <v>2</v>
-      </c>
-      <c r="N22" t="s">
-        <v>139</v>
-      </c>
       <c r="O22" t="s">
-        <v>53</v>
-      </c>
-      <c r="P22" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>4</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
       <c r="R22" t="n">
         <v>4</v>
       </c>
       <c r="S22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T22" t="s"/>
       <c r="U22" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -3099,7 +3776,7 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23">
@@ -3115,7 +3792,7 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -3124,30 +3801,34 @@
         <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="J23" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K23" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L23" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c r="O23" t="s">
-        <v>83</v>
-      </c>
-      <c r="P23" t="s"/>
-      <c r="Q23" t="s"/>
+        <v>70</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
       <c r="R23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S23" t="n">
         <v>5</v>
@@ -3162,7 +3843,7 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="24">
@@ -3178,7 +3859,7 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G24" t="s">
         <v>46</v>
@@ -3187,35 +3868,29 @@
         <v>47</v>
       </c>
       <c r="I24" t="s">
+        <v>179</v>
+      </c>
+      <c r="J24" t="s">
+        <v>180</v>
+      </c>
+      <c r="K24" t="s">
+        <v>181</v>
+      </c>
+      <c r="L24" t="s">
+        <v>182</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
         <v>177</v>
       </c>
-      <c r="J24" t="s">
-        <v>178</v>
-      </c>
-      <c r="K24" t="s">
-        <v>179</v>
-      </c>
-      <c r="L24" t="s">
-        <v>180</v>
-      </c>
-      <c r="M24" t="n">
-        <v>5</v>
-      </c>
-      <c r="N24" t="s">
-        <v>139</v>
-      </c>
       <c r="O24" t="s">
-        <v>83</v>
-      </c>
-      <c r="P24" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>5</v>
-      </c>
-      <c r="R24" t="n">
-        <v>5</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
       <c r="S24" t="n">
         <v>5</v>
       </c>
@@ -3229,7 +3904,7 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="25">
@@ -3245,7 +3920,7 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G25" t="s">
         <v>46</v>
@@ -3254,39 +3929,49 @@
         <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="J25" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="K25" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L25" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>139</v>
+        <v>188</v>
       </c>
       <c r="O25" t="s">
-        <v>60</v>
-      </c>
-      <c r="P25" t="s"/>
-      <c r="Q25" t="s"/>
-      <c r="R25" t="s"/>
-      <c r="S25" t="s"/>
+        <v>70</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
       <c r="T25" t="s"/>
-      <c r="U25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="26">
@@ -3302,7 +3987,7 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G26" t="s">
         <v>46</v>
@@ -3311,22 +3996,22 @@
         <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="J26" t="s">
+        <v>191</v>
+      </c>
+      <c r="K26" t="s">
+        <v>192</v>
+      </c>
+      <c r="L26" t="s">
+        <v>193</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
         <v>188</v>
-      </c>
-      <c r="K26" t="s">
-        <v>189</v>
-      </c>
-      <c r="L26" t="s">
-        <v>190</v>
-      </c>
-      <c r="M26" t="n">
-        <v>5</v>
-      </c>
-      <c r="N26" t="s">
-        <v>152</v>
       </c>
       <c r="O26" t="s">
         <v>53</v>
@@ -3353,7 +4038,7 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="27">
@@ -3369,7 +4054,7 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="G27" t="s">
         <v>46</v>
@@ -3378,25 +4063,25 @@
         <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="J27" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="K27" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="L27" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="O27" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="P27" t="n">
         <v>5</v>
@@ -3417,14 +4102,10 @@
       <c r="V27" t="n">
         <v>0</v>
       </c>
-      <c r="W27" t="s">
-        <v>197</v>
-      </c>
-      <c r="X27" t="s">
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
         <v>198</v>
-      </c>
-      <c r="Y27" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="28">
@@ -3440,62 +4121,58 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
+        <v>199</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
         <v>200</v>
       </c>
-      <c r="G28" t="s">
-        <v>46</v>
-      </c>
-      <c r="H28" t="s">
-        <v>47</v>
-      </c>
-      <c r="I28" t="s">
+      <c r="J28" t="s">
         <v>201</v>
       </c>
-      <c r="J28" t="s">
+      <c r="K28" t="s">
         <v>202</v>
       </c>
-      <c r="K28" t="s">
+      <c r="L28" t="s">
         <v>203</v>
       </c>
-      <c r="L28" t="s">
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
         <v>204</v>
       </c>
-      <c r="M28" t="n">
-        <v>5</v>
-      </c>
-      <c r="N28" t="s">
-        <v>196</v>
-      </c>
       <c r="O28" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="P28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R28" t="n">
         <v>4</v>
       </c>
       <c r="S28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
-      <c r="W28" t="s">
-        <v>197</v>
-      </c>
-      <c r="X28" t="s">
-        <v>198</v>
-      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="29">
@@ -3511,34 +4188,34 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
+        <v>205</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
         <v>206</v>
       </c>
-      <c r="G29" t="s">
-        <v>46</v>
-      </c>
-      <c r="H29" t="s">
-        <v>47</v>
-      </c>
-      <c r="I29" t="s">
+      <c r="J29" t="s">
         <v>207</v>
       </c>
-      <c r="J29" t="s">
+      <c r="K29" t="s">
         <v>208</v>
       </c>
-      <c r="K29" t="s">
+      <c r="L29" t="s">
         <v>209</v>
       </c>
-      <c r="L29" t="s">
-        <v>210</v>
-      </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="O29" t="s">
-        <v>212</v>
+        <v>53</v>
       </c>
       <c r="P29" t="n">
         <v>5</v>
@@ -3559,14 +4236,10 @@
       <c r="V29" t="n">
         <v>0</v>
       </c>
-      <c r="W29" t="s">
-        <v>213</v>
-      </c>
-      <c r="X29" t="s">
-        <v>214</v>
-      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="30">
@@ -3582,62 +4255,58 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
+        <v>210</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>211</v>
+      </c>
+      <c r="J30" t="s">
+        <v>212</v>
+      </c>
+      <c r="K30" t="s">
+        <v>213</v>
+      </c>
+      <c r="L30" t="s">
+        <v>214</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>215</v>
+      </c>
+      <c r="O30" t="s">
         <v>216</v>
       </c>
-      <c r="G30" t="s">
-        <v>46</v>
-      </c>
-      <c r="H30" t="s">
-        <v>47</v>
-      </c>
-      <c r="I30" t="s">
-        <v>217</v>
-      </c>
-      <c r="J30" t="s">
-        <v>218</v>
-      </c>
-      <c r="K30" t="s">
-        <v>219</v>
-      </c>
-      <c r="L30" t="s">
-        <v>220</v>
-      </c>
-      <c r="M30" t="n">
-        <v>5</v>
-      </c>
-      <c r="N30" t="s">
-        <v>211</v>
-      </c>
-      <c r="O30" t="s">
-        <v>83</v>
-      </c>
       <c r="P30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
-      <c r="W30" t="s">
-        <v>213</v>
-      </c>
-      <c r="X30" t="s">
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
         <v>214</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="31">
@@ -3653,7 +4322,7 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="G31" t="s">
         <v>46</v>
@@ -3662,22 +4331,22 @@
         <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="J31" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="K31" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="L31" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="M31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="O31" t="s">
         <v>53</v>
@@ -3696,19 +4365,15 @@
       </c>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
-      <c r="W31" t="s">
-        <v>213</v>
-      </c>
-      <c r="X31" t="s">
-        <v>214</v>
-      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="32">
@@ -3724,7 +4389,7 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="G32" t="s">
         <v>46</v>
@@ -3733,37 +4398,33 @@
         <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="J32" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="K32" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="L32" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="M32" t="n">
         <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="O32" t="s">
-        <v>60</v>
-      </c>
-      <c r="P32" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>4</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
       <c r="R32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
@@ -3772,14 +4433,10 @@
       <c r="V32" t="n">
         <v>0</v>
       </c>
-      <c r="W32" t="s">
-        <v>234</v>
-      </c>
-      <c r="X32" t="s">
-        <v>235</v>
-      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
     </row>
     <row r="33">
@@ -3795,7 +4452,7 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="G33" t="s">
         <v>46</v>
@@ -3804,53 +4461,49 @@
         <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="J33" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="K33" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="L33" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="M33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N33" t="s">
         <v>233</v>
       </c>
       <c r="O33" t="s">
-        <v>140</v>
+        <v>53</v>
       </c>
       <c r="P33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T33" t="s"/>
       <c r="U33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
-      <c r="W33" t="s">
-        <v>234</v>
-      </c>
-      <c r="X33" t="s">
-        <v>235</v>
-      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
     </row>
     <row r="34">
@@ -3866,7 +4519,7 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="G34" t="s">
         <v>46</v>
@@ -3875,53 +4528,49 @@
         <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="J34" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="K34" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="L34" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="M34" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="O34" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="P34" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q34" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S34" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
-      <c r="W34" t="s">
-        <v>248</v>
-      </c>
-      <c r="X34" t="s">
-        <v>249</v>
-      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
     </row>
     <row r="35">
@@ -3937,7 +4586,7 @@
         <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="G35" t="s">
         <v>46</v>
@@ -3946,22 +4595,22 @@
         <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="J35" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="K35" t="s">
-        <v>254</v>
+        <v>202</v>
       </c>
       <c r="L35" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="M35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>256</v>
+        <v>233</v>
       </c>
       <c r="O35" t="s">
         <v>53</v>
@@ -3973,10 +4622,10 @@
         <v>5</v>
       </c>
       <c r="R35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T35" t="s"/>
       <c r="U35" t="n">
@@ -3988,7 +4637,7 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
     </row>
     <row r="36">
@@ -4004,7 +4653,7 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="G36" t="s">
         <v>46</v>
@@ -4013,28 +4662,32 @@
         <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="J36" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="K36" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="L36" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>262</v>
+        <v>233</v>
       </c>
       <c r="O36" t="s">
-        <v>60</v>
-      </c>
-      <c r="P36" t="s"/>
-      <c r="Q36" t="s"/>
+        <v>216</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
       <c r="R36" t="n">
         <v>5</v>
       </c>
@@ -4051,7 +4704,7 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
     </row>
     <row r="37">
@@ -4067,7 +4720,7 @@
         <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="G37" t="s">
         <v>46</v>
@@ -4076,41 +4729,41 @@
         <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="J37" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="K37" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="L37" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="M37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N37" t="s">
-        <v>256</v>
+        <v>215</v>
       </c>
       <c r="O37" t="s">
-        <v>140</v>
+        <v>63</v>
       </c>
       <c r="P37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T37" t="s"/>
       <c r="U37" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -4118,7 +4771,7 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
     </row>
     <row r="38">
@@ -4134,7 +4787,7 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="G38" t="s">
         <v>46</v>
@@ -4143,31 +4796,31 @@
         <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="J38" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="K38" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="L38" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="M38" t="n">
         <v>4</v>
       </c>
       <c r="N38" t="s">
-        <v>256</v>
+        <v>215</v>
       </c>
       <c r="O38" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="P38" t="n">
         <v>4</v>
       </c>
       <c r="Q38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R38" t="n">
         <v>5</v>
@@ -4177,19 +4830,15 @@
       </c>
       <c r="T38" t="s"/>
       <c r="U38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
-      <c r="W38" t="s">
-        <v>273</v>
-      </c>
-      <c r="X38" t="s">
-        <v>274</v>
-      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
     </row>
     <row r="39">
@@ -4205,7 +4854,7 @@
         <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="G39" t="s">
         <v>46</v>
@@ -4214,28 +4863,28 @@
         <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
       <c r="J39" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
       <c r="K39" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="L39" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>281</v>
+        <v>215</v>
       </c>
       <c r="O39" t="s">
-        <v>60</v>
+        <v>264</v>
       </c>
       <c r="P39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q39" t="n">
         <v>5</v>
@@ -4256,7 +4905,7 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
     </row>
     <row r="40">
@@ -4272,7 +4921,7 @@
         <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="G40" t="s">
         <v>46</v>
@@ -4281,34 +4930,30 @@
         <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="J40" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="K40" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="L40" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="M40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N40" t="s">
-        <v>281</v>
+        <v>227</v>
       </c>
       <c r="O40" t="s">
-        <v>83</v>
-      </c>
-      <c r="P40" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>5</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
       <c r="R40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S40" t="n">
         <v>5</v>
@@ -4323,7 +4968,7 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
     </row>
     <row r="41">
@@ -4339,7 +4984,7 @@
         <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="G41" t="s">
         <v>46</v>
@@ -4348,25 +4993,25 @@
         <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="J41" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="K41" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="L41" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="M41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>292</v>
+        <v>215</v>
       </c>
       <c r="O41" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="P41" t="n">
         <v>5</v>
@@ -4378,7 +5023,7 @@
         <v>5</v>
       </c>
       <c r="S41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T41" t="s"/>
       <c r="U41" t="n">
@@ -4390,7 +5035,7 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
     </row>
     <row r="42">
@@ -4406,7 +5051,7 @@
         <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="G42" t="s">
         <v>46</v>
@@ -4415,53 +5060,39 @@
         <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="J42" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="K42" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="L42" t="s">
-        <v>297</v>
+        <v>280</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>292</v>
+        <v>215</v>
       </c>
       <c r="O42" t="s">
-        <v>83</v>
-      </c>
-      <c r="P42" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>5</v>
-      </c>
-      <c r="R42" t="n">
-        <v>5</v>
-      </c>
-      <c r="S42" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
       <c r="T42" t="s"/>
-      <c r="U42" t="n">
-        <v>5</v>
-      </c>
+      <c r="U42" t="s"/>
       <c r="V42" t="n">
         <v>0</v>
       </c>
-      <c r="W42" t="s">
-        <v>298</v>
-      </c>
-      <c r="X42" t="s">
-        <v>299</v>
-      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
     </row>
     <row r="43">
@@ -4477,7 +5108,7 @@
         <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>301</v>
+        <v>281</v>
       </c>
       <c r="G43" t="s">
         <v>46</v>
@@ -4486,25 +5117,25 @@
         <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>302</v>
+        <v>282</v>
       </c>
       <c r="J43" t="s">
-        <v>303</v>
+        <v>283</v>
       </c>
       <c r="K43" t="s">
-        <v>304</v>
+        <v>284</v>
       </c>
       <c r="L43" t="s">
-        <v>305</v>
+        <v>285</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>292</v>
+        <v>215</v>
       </c>
       <c r="O43" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="P43" t="n">
         <v>5</v>
@@ -4516,7 +5147,7 @@
         <v>5</v>
       </c>
       <c r="S43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T43" t="s"/>
       <c r="U43" t="n">
@@ -4525,14 +5156,10 @@
       <c r="V43" t="n">
         <v>0</v>
       </c>
-      <c r="W43" t="s">
-        <v>306</v>
-      </c>
-      <c r="X43" t="s">
-        <v>307</v>
-      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>308</v>
+        <v>285</v>
       </c>
     </row>
     <row r="44">
@@ -4548,7 +5175,7 @@
         <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>309</v>
+        <v>286</v>
       </c>
       <c r="G44" t="s">
         <v>46</v>
@@ -4557,53 +5184,39 @@
         <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>310</v>
+        <v>287</v>
       </c>
       <c r="J44" t="s">
-        <v>311</v>
+        <v>288</v>
       </c>
       <c r="K44" t="s">
-        <v>312</v>
+        <v>289</v>
       </c>
       <c r="L44" t="s">
-        <v>313</v>
+        <v>290</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>314</v>
+        <v>227</v>
       </c>
       <c r="O44" t="s">
-        <v>140</v>
-      </c>
-      <c r="P44" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>5</v>
-      </c>
-      <c r="R44" t="n">
-        <v>5</v>
-      </c>
-      <c r="S44" t="n">
-        <v>5</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
       <c r="T44" t="s"/>
-      <c r="U44" t="n">
-        <v>5</v>
-      </c>
+      <c r="U44" t="s"/>
       <c r="V44" t="n">
         <v>0</v>
       </c>
-      <c r="W44" t="s">
-        <v>315</v>
-      </c>
-      <c r="X44" t="s">
-        <v>316</v>
-      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>317</v>
+        <v>290</v>
       </c>
     </row>
     <row r="45">
@@ -4619,7 +5232,7 @@
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>318</v>
+        <v>291</v>
       </c>
       <c r="G45" t="s">
         <v>46</v>
@@ -4628,43 +5241,49 @@
         <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>319</v>
+        <v>292</v>
       </c>
       <c r="J45" t="s">
-        <v>320</v>
+        <v>293</v>
       </c>
       <c r="K45" t="s">
-        <v>321</v>
+        <v>294</v>
       </c>
       <c r="L45" t="s">
-        <v>322</v>
+        <v>295</v>
       </c>
       <c r="M45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>314</v>
+        <v>227</v>
       </c>
       <c r="O45" t="s">
-        <v>60</v>
-      </c>
-      <c r="P45" t="s"/>
-      <c r="Q45" t="s"/>
-      <c r="R45" t="s"/>
-      <c r="S45" t="s"/>
+        <v>63</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
       <c r="T45" t="s"/>
-      <c r="U45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
-      <c r="W45" t="s">
-        <v>323</v>
-      </c>
-      <c r="X45" t="s">
-        <v>324</v>
-      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>325</v>
+        <v>295</v>
       </c>
     </row>
     <row r="46">
@@ -4680,7 +5299,7 @@
         <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>326</v>
+        <v>296</v>
       </c>
       <c r="G46" t="s">
         <v>46</v>
@@ -4689,39 +5308,53 @@
         <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>327</v>
+        <v>297</v>
       </c>
       <c r="J46" t="s">
-        <v>328</v>
+        <v>298</v>
       </c>
       <c r="K46" t="s">
-        <v>329</v>
+        <v>299</v>
       </c>
       <c r="L46" t="s">
-        <v>330</v>
+        <v>300</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>331</v>
+        <v>301</v>
       </c>
       <c r="O46" t="s">
-        <v>60</v>
-      </c>
-      <c r="P46" t="s"/>
-      <c r="Q46" t="s"/>
-      <c r="R46" t="s"/>
-      <c r="S46" t="s"/>
+        <v>63</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
       <c r="T46" t="s"/>
-      <c r="U46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
-      <c r="W46" t="s"/>
-      <c r="X46" t="s"/>
+      <c r="W46" t="s">
+        <v>302</v>
+      </c>
+      <c r="X46" t="s">
+        <v>303</v>
+      </c>
       <c r="Y46" t="s">
-        <v>332</v>
+        <v>304</v>
       </c>
     </row>
     <row r="47">
@@ -4737,7 +5370,7 @@
         <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>333</v>
+        <v>305</v>
       </c>
       <c r="G47" t="s">
         <v>46</v>
@@ -4746,43 +5379,53 @@
         <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>334</v>
+        <v>306</v>
       </c>
       <c r="J47" t="s">
-        <v>335</v>
+        <v>307</v>
       </c>
       <c r="K47" t="s">
-        <v>336</v>
+        <v>308</v>
       </c>
       <c r="L47" t="s">
-        <v>337</v>
+        <v>309</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>331</v>
+        <v>301</v>
       </c>
       <c r="O47" t="s">
-        <v>60</v>
-      </c>
-      <c r="P47" t="s"/>
-      <c r="Q47" t="s"/>
-      <c r="R47" t="s"/>
-      <c r="S47" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>4</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
       <c r="T47" t="s"/>
-      <c r="U47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
       <c r="V47" t="n">
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>338</v>
+        <v>302</v>
       </c>
       <c r="X47" t="s">
-        <v>339</v>
+        <v>303</v>
       </c>
       <c r="Y47" t="s">
-        <v>340</v>
+        <v>310</v>
       </c>
     </row>
     <row r="48">
@@ -4798,7 +5441,7 @@
         <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>341</v>
+        <v>311</v>
       </c>
       <c r="G48" t="s">
         <v>46</v>
@@ -4807,32 +5450,38 @@
         <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>342</v>
+        <v>312</v>
       </c>
       <c r="J48" t="s">
-        <v>343</v>
+        <v>313</v>
       </c>
       <c r="K48" t="s">
-        <v>344</v>
+        <v>314</v>
       </c>
       <c r="L48" t="s">
-        <v>345</v>
+        <v>315</v>
       </c>
       <c r="M48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>331</v>
+        <v>301</v>
       </c>
       <c r="O48" t="s">
-        <v>140</v>
-      </c>
-      <c r="P48" t="s"/>
-      <c r="Q48" t="s"/>
+        <v>70</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
       <c r="R48" t="n">
-        <v>4</v>
-      </c>
-      <c r="S48" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
       <c r="T48" t="s"/>
       <c r="U48" t="n">
         <v>5</v>
@@ -4840,14 +5489,10 @@
       <c r="V48" t="n">
         <v>0</v>
       </c>
-      <c r="W48" t="s">
-        <v>346</v>
-      </c>
-      <c r="X48" t="s">
-        <v>347</v>
-      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>348</v>
+        <v>315</v>
       </c>
     </row>
     <row r="49">
@@ -4863,7 +5508,7 @@
         <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>349</v>
+        <v>316</v>
       </c>
       <c r="G49" t="s">
         <v>46</v>
@@ -4872,25 +5517,25 @@
         <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>350</v>
+        <v>317</v>
       </c>
       <c r="J49" t="s">
-        <v>351</v>
+        <v>318</v>
       </c>
       <c r="K49" t="s">
-        <v>352</v>
+        <v>319</v>
       </c>
       <c r="L49" t="s">
-        <v>353</v>
+        <v>320</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="O49" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="P49" t="n">
         <v>5</v>
@@ -4899,7 +5544,7 @@
         <v>5</v>
       </c>
       <c r="R49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S49" t="n">
         <v>5</v>
@@ -4912,13 +5557,13 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>354</v>
+        <v>322</v>
       </c>
       <c r="X49" t="s">
-        <v>355</v>
+        <v>323</v>
       </c>
       <c r="Y49" t="s">
-        <v>356</v>
+        <v>324</v>
       </c>
     </row>
     <row r="50">
@@ -4934,7 +5579,7 @@
         <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>357</v>
+        <v>325</v>
       </c>
       <c r="G50" t="s">
         <v>46</v>
@@ -4943,25 +5588,25 @@
         <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>358</v>
+        <v>326</v>
       </c>
       <c r="J50" t="s">
-        <v>359</v>
+        <v>327</v>
       </c>
       <c r="K50" t="s">
-        <v>360</v>
+        <v>328</v>
       </c>
       <c r="L50" t="s">
-        <v>361</v>
+        <v>329</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="O50" t="s">
-        <v>60</v>
+        <v>264</v>
       </c>
       <c r="P50" t="n">
         <v>5</v>
@@ -4983,13 +5628,13 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>362</v>
+        <v>322</v>
       </c>
       <c r="X50" t="s">
-        <v>363</v>
+        <v>323</v>
       </c>
       <c r="Y50" t="s">
-        <v>364</v>
+        <v>330</v>
       </c>
     </row>
     <row r="51">
@@ -5005,7 +5650,7 @@
         <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>365</v>
+        <v>331</v>
       </c>
       <c r="G51" t="s">
         <v>46</v>
@@ -5014,53 +5659,53 @@
         <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>366</v>
+        <v>332</v>
       </c>
       <c r="J51" t="s">
-        <v>367</v>
+        <v>333</v>
       </c>
       <c r="K51" t="s">
-        <v>368</v>
+        <v>334</v>
       </c>
       <c r="L51" t="s">
-        <v>369</v>
+        <v>335</v>
       </c>
       <c r="M51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>262</v>
+        <v>321</v>
       </c>
       <c r="O51" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="P51" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q51" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S51" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T51" t="s"/>
       <c r="U51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V51" t="n">
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>370</v>
+        <v>322</v>
       </c>
       <c r="X51" t="s">
-        <v>371</v>
+        <v>323</v>
       </c>
       <c r="Y51" t="s">
-        <v>372</v>
+        <v>336</v>
       </c>
     </row>
     <row r="52">
@@ -5076,7 +5721,7 @@
         <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>373</v>
+        <v>337</v>
       </c>
       <c r="G52" t="s">
         <v>46</v>
@@ -5085,53 +5730,53 @@
         <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>374</v>
+        <v>338</v>
       </c>
       <c r="J52" t="s">
-        <v>375</v>
+        <v>339</v>
       </c>
       <c r="K52" t="s">
-        <v>376</v>
+        <v>340</v>
       </c>
       <c r="L52" t="s">
-        <v>377</v>
+        <v>341</v>
       </c>
       <c r="M52" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>262</v>
+        <v>321</v>
       </c>
       <c r="O52" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="P52" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q52" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R52" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S52" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T52" t="s"/>
       <c r="U52" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V52" t="n">
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>378</v>
+        <v>322</v>
       </c>
       <c r="X52" t="s">
-        <v>379</v>
+        <v>323</v>
       </c>
       <c r="Y52" t="s">
-        <v>380</v>
+        <v>342</v>
       </c>
     </row>
     <row r="53">
@@ -5147,7 +5792,7 @@
         <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>381</v>
+        <v>343</v>
       </c>
       <c r="G53" t="s">
         <v>46</v>
@@ -5156,53 +5801,47 @@
         <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>382</v>
+        <v>344</v>
       </c>
       <c r="J53" t="s">
-        <v>383</v>
+        <v>345</v>
       </c>
       <c r="K53" t="s">
-        <v>384</v>
+        <v>346</v>
       </c>
       <c r="L53" t="s">
-        <v>385</v>
+        <v>347</v>
       </c>
       <c r="M53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N53" t="s">
-        <v>262</v>
+        <v>321</v>
       </c>
       <c r="O53" t="s">
-        <v>60</v>
-      </c>
-      <c r="P53" t="n">
-        <v>5</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="P53" t="s"/>
       <c r="Q53" t="n">
-        <v>5</v>
-      </c>
-      <c r="R53" t="n">
-        <v>5</v>
-      </c>
-      <c r="S53" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
       <c r="T53" t="s"/>
       <c r="U53" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V53" t="n">
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>378</v>
+        <v>322</v>
       </c>
       <c r="X53" t="s">
-        <v>379</v>
+        <v>323</v>
       </c>
       <c r="Y53" t="s">
-        <v>386</v>
+        <v>348</v>
       </c>
     </row>
     <row r="54">
@@ -5218,7 +5857,7 @@
         <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>387</v>
+        <v>349</v>
       </c>
       <c r="G54" t="s">
         <v>46</v>
@@ -5227,34 +5866,34 @@
         <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>388</v>
+        <v>350</v>
       </c>
       <c r="J54" t="s">
-        <v>389</v>
+        <v>351</v>
       </c>
       <c r="K54" t="s">
-        <v>390</v>
+        <v>352</v>
       </c>
       <c r="L54" t="s">
-        <v>391</v>
+        <v>353</v>
       </c>
       <c r="M54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>262</v>
+        <v>321</v>
       </c>
       <c r="O54" t="s">
-        <v>60</v>
+        <v>216</v>
       </c>
       <c r="P54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q54" t="n">
         <v>5</v>
       </c>
       <c r="R54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S54" t="n">
         <v>5</v>
@@ -5266,10 +5905,14 @@
       <c r="V54" t="n">
         <v>0</v>
       </c>
-      <c r="W54" t="s"/>
-      <c r="X54" t="s"/>
+      <c r="W54" t="s">
+        <v>354</v>
+      </c>
+      <c r="X54" t="s">
+        <v>355</v>
+      </c>
       <c r="Y54" t="s">
-        <v>391</v>
+        <v>356</v>
       </c>
     </row>
     <row r="55">
@@ -5285,7 +5928,7 @@
         <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>392</v>
+        <v>357</v>
       </c>
       <c r="G55" t="s">
         <v>46</v>
@@ -5294,31 +5937,31 @@
         <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>393</v>
+        <v>358</v>
       </c>
       <c r="J55" t="s">
-        <v>394</v>
+        <v>359</v>
       </c>
       <c r="K55" t="s">
-        <v>395</v>
+        <v>360</v>
       </c>
       <c r="L55" t="s">
-        <v>396</v>
+        <v>361</v>
       </c>
       <c r="M55" t="n">
         <v>4</v>
       </c>
       <c r="N55" t="s">
-        <v>262</v>
+        <v>362</v>
       </c>
       <c r="O55" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="P55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R55" t="n">
         <v>4</v>
@@ -5333,10 +5976,2675 @@
       <c r="V55" t="n">
         <v>0</v>
       </c>
-      <c r="W55" t="s"/>
-      <c r="X55" t="s"/>
+      <c r="W55" t="s">
+        <v>363</v>
+      </c>
+      <c r="X55" t="s">
+        <v>364</v>
+      </c>
       <c r="Y55" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>65365</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>366</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>367</v>
+      </c>
+      <c r="J56" t="s">
+        <v>368</v>
+      </c>
+      <c r="K56" t="s">
+        <v>369</v>
+      </c>
+      <c r="L56" t="s">
+        <v>370</v>
+      </c>
+      <c r="M56" t="n">
+        <v>3</v>
+      </c>
+      <c r="N56" t="s">
+        <v>362</v>
+      </c>
+      <c r="O56" t="s">
+        <v>216</v>
+      </c>
+      <c r="P56" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>4</v>
+      </c>
+      <c r="R56" t="n">
+        <v>3</v>
+      </c>
+      <c r="S56" t="n">
+        <v>4</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>3</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>363</v>
+      </c>
+      <c r="X56" t="s">
+        <v>364</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>65365</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>372</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>373</v>
+      </c>
+      <c r="J57" t="s">
+        <v>374</v>
+      </c>
+      <c r="K57" t="s">
+        <v>375</v>
+      </c>
+      <c r="L57" t="s">
+        <v>376</v>
+      </c>
+      <c r="M57" t="n">
+        <v>2</v>
+      </c>
+      <c r="N57" t="s">
+        <v>362</v>
+      </c>
+      <c r="O57" t="s">
+        <v>53</v>
+      </c>
+      <c r="P57" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>1</v>
+      </c>
+      <c r="R57" t="n">
+        <v>3</v>
+      </c>
+      <c r="S57" t="n">
+        <v>1</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>3</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>377</v>
+      </c>
+      <c r="X57" t="s">
+        <v>378</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>65365</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>380</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>381</v>
+      </c>
+      <c r="J58" t="s">
+        <v>382</v>
+      </c>
+      <c r="K58" t="s">
+        <v>383</v>
+      </c>
+      <c r="L58" t="s">
+        <v>384</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>362</v>
+      </c>
+      <c r="O58" t="s">
+        <v>63</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>377</v>
+      </c>
+      <c r="X58" t="s">
+        <v>378</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>65365</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>386</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>387</v>
+      </c>
+      <c r="J59" t="s">
+        <v>388</v>
+      </c>
+      <c r="K59" t="s">
+        <v>389</v>
+      </c>
+      <c r="L59" t="s">
+        <v>390</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>362</v>
+      </c>
+      <c r="O59" t="s">
+        <v>70</v>
+      </c>
+      <c r="P59" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>3</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>65365</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>391</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>392</v>
+      </c>
+      <c r="J60" t="s">
+        <v>393</v>
+      </c>
+      <c r="K60" t="s">
+        <v>394</v>
+      </c>
+      <c r="L60" t="s">
+        <v>395</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
         <v>396</v>
+      </c>
+      <c r="O60" t="s">
+        <v>63</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>65365</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>397</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>398</v>
+      </c>
+      <c r="J61" t="s">
+        <v>399</v>
+      </c>
+      <c r="K61" t="s">
+        <v>400</v>
+      </c>
+      <c r="L61" t="s">
+        <v>401</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>402</v>
+      </c>
+      <c r="O61" t="s">
+        <v>53</v>
+      </c>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>65365</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>403</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>404</v>
+      </c>
+      <c r="J62" t="s">
+        <v>405</v>
+      </c>
+      <c r="K62" t="s">
+        <v>406</v>
+      </c>
+      <c r="L62" t="s">
+        <v>407</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>396</v>
+      </c>
+      <c r="O62" t="s">
+        <v>216</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>65365</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>408</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>409</v>
+      </c>
+      <c r="J63" t="s">
+        <v>410</v>
+      </c>
+      <c r="K63" t="s">
+        <v>411</v>
+      </c>
+      <c r="L63" t="s">
+        <v>412</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>396</v>
+      </c>
+      <c r="O63" t="s">
+        <v>53</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>65365</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>413</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>414</v>
+      </c>
+      <c r="J64" t="s">
+        <v>415</v>
+      </c>
+      <c r="K64" t="s">
+        <v>416</v>
+      </c>
+      <c r="L64" t="s">
+        <v>417</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>396</v>
+      </c>
+      <c r="O64" t="s">
+        <v>53</v>
+      </c>
+      <c r="P64" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>418</v>
+      </c>
+      <c r="X64" t="s">
+        <v>419</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>65365</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>421</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>422</v>
+      </c>
+      <c r="J65" t="s">
+        <v>423</v>
+      </c>
+      <c r="K65" t="s">
+        <v>424</v>
+      </c>
+      <c r="L65" t="s">
+        <v>425</v>
+      </c>
+      <c r="M65" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" t="s">
+        <v>396</v>
+      </c>
+      <c r="O65" t="s">
+        <v>70</v>
+      </c>
+      <c r="P65" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>3</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>4</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>418</v>
+      </c>
+      <c r="X65" t="s">
+        <v>419</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65365</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>427</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>428</v>
+      </c>
+      <c r="J66" t="s">
+        <v>429</v>
+      </c>
+      <c r="K66" t="s">
+        <v>430</v>
+      </c>
+      <c r="L66" t="s">
+        <v>431</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>432</v>
+      </c>
+      <c r="O66" t="s">
+        <v>53</v>
+      </c>
+      <c r="P66" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>65365</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>433</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>434</v>
+      </c>
+      <c r="J67" t="s">
+        <v>435</v>
+      </c>
+      <c r="K67" t="s">
+        <v>436</v>
+      </c>
+      <c r="L67" t="s">
+        <v>437</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>432</v>
+      </c>
+      <c r="O67" t="s">
+        <v>70</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>65365</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>438</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>439</v>
+      </c>
+      <c r="J68" t="s">
+        <v>440</v>
+      </c>
+      <c r="K68" t="s">
+        <v>441</v>
+      </c>
+      <c r="L68" t="s">
+        <v>442</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>432</v>
+      </c>
+      <c r="O68" t="s">
+        <v>264</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="s"/>
+      <c r="R68" t="s"/>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>443</v>
+      </c>
+      <c r="X68" t="s">
+        <v>444</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>65365</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>446</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>447</v>
+      </c>
+      <c r="J69" t="s">
+        <v>448</v>
+      </c>
+      <c r="K69" t="s">
+        <v>449</v>
+      </c>
+      <c r="L69" t="s">
+        <v>450</v>
+      </c>
+      <c r="M69" t="n">
+        <v>2</v>
+      </c>
+      <c r="N69" t="s">
+        <v>451</v>
+      </c>
+      <c r="O69" t="s">
+        <v>53</v>
+      </c>
+      <c r="P69" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>3</v>
+      </c>
+      <c r="R69" t="n">
+        <v>4</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>443</v>
+      </c>
+      <c r="X69" t="s">
+        <v>444</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>65365</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>453</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>454</v>
+      </c>
+      <c r="J70" t="s">
+        <v>455</v>
+      </c>
+      <c r="K70" t="s">
+        <v>456</v>
+      </c>
+      <c r="L70" t="s">
+        <v>457</v>
+      </c>
+      <c r="M70" t="n">
+        <v>4</v>
+      </c>
+      <c r="N70" t="s">
+        <v>451</v>
+      </c>
+      <c r="O70" t="s">
+        <v>53</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>4</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>65365</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>458</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>459</v>
+      </c>
+      <c r="J71" t="s">
+        <v>460</v>
+      </c>
+      <c r="K71" t="s">
+        <v>461</v>
+      </c>
+      <c r="L71" t="s">
+        <v>462</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>451</v>
+      </c>
+      <c r="O71" t="s">
+        <v>70</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>5</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>443</v>
+      </c>
+      <c r="X71" t="s">
+        <v>444</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>65365</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>464</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>465</v>
+      </c>
+      <c r="J72" t="s">
+        <v>466</v>
+      </c>
+      <c r="K72" t="s">
+        <v>467</v>
+      </c>
+      <c r="L72" t="s">
+        <v>468</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>451</v>
+      </c>
+      <c r="O72" t="s">
+        <v>70</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>469</v>
+      </c>
+      <c r="X72" t="s">
+        <v>470</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>65365</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>472</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>473</v>
+      </c>
+      <c r="J73" t="s">
+        <v>474</v>
+      </c>
+      <c r="K73" t="s">
+        <v>475</v>
+      </c>
+      <c r="L73" t="s">
+        <v>476</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>451</v>
+      </c>
+      <c r="O73" t="s">
+        <v>63</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>477</v>
+      </c>
+      <c r="X73" t="s">
+        <v>478</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>65365</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>480</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>481</v>
+      </c>
+      <c r="J74" t="s">
+        <v>482</v>
+      </c>
+      <c r="K74" t="s">
+        <v>483</v>
+      </c>
+      <c r="L74" t="s">
+        <v>484</v>
+      </c>
+      <c r="M74" t="n">
+        <v>3</v>
+      </c>
+      <c r="N74" t="s">
+        <v>451</v>
+      </c>
+      <c r="O74" t="s">
+        <v>53</v>
+      </c>
+      <c r="P74" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>3</v>
+      </c>
+      <c r="R74" t="n">
+        <v>3</v>
+      </c>
+      <c r="S74" t="n">
+        <v>3</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>3</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>477</v>
+      </c>
+      <c r="X74" t="s">
+        <v>478</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>65365</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>486</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>487</v>
+      </c>
+      <c r="J75" t="s">
+        <v>488</v>
+      </c>
+      <c r="K75" t="s">
+        <v>489</v>
+      </c>
+      <c r="L75" t="s">
+        <v>490</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>491</v>
+      </c>
+      <c r="O75" t="s">
+        <v>216</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>492</v>
+      </c>
+      <c r="X75" t="s">
+        <v>493</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>65365</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>495</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>496</v>
+      </c>
+      <c r="J76" t="s">
+        <v>497</v>
+      </c>
+      <c r="K76" t="s">
+        <v>498</v>
+      </c>
+      <c r="L76" t="s">
+        <v>499</v>
+      </c>
+      <c r="M76" t="n">
+        <v>4</v>
+      </c>
+      <c r="N76" t="s">
+        <v>491</v>
+      </c>
+      <c r="O76" t="s">
+        <v>53</v>
+      </c>
+      <c r="P76" t="s"/>
+      <c r="Q76" t="s"/>
+      <c r="R76" t="s"/>
+      <c r="S76" t="s"/>
+      <c r="T76" t="s"/>
+      <c r="U76" t="s"/>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>500</v>
+      </c>
+      <c r="X76" t="s">
+        <v>501</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>65365</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>503</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>504</v>
+      </c>
+      <c r="J77" t="s">
+        <v>505</v>
+      </c>
+      <c r="K77" t="s">
+        <v>506</v>
+      </c>
+      <c r="L77" t="s">
+        <v>507</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s">
+        <v>508</v>
+      </c>
+      <c r="O77" t="s">
+        <v>53</v>
+      </c>
+      <c r="P77" t="s"/>
+      <c r="Q77" t="s"/>
+      <c r="R77" t="s"/>
+      <c r="S77" t="s"/>
+      <c r="T77" t="s"/>
+      <c r="U77" t="s"/>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>65365</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>510</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>511</v>
+      </c>
+      <c r="J78" t="s">
+        <v>512</v>
+      </c>
+      <c r="K78" t="s">
+        <v>513</v>
+      </c>
+      <c r="L78" t="s">
+        <v>514</v>
+      </c>
+      <c r="M78" t="n">
+        <v>1</v>
+      </c>
+      <c r="N78" t="s">
+        <v>508</v>
+      </c>
+      <c r="O78" t="s">
+        <v>216</v>
+      </c>
+      <c r="P78" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>2</v>
+      </c>
+      <c r="R78" t="n">
+        <v>5</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>500</v>
+      </c>
+      <c r="X78" t="s">
+        <v>501</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>65365</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>516</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>517</v>
+      </c>
+      <c r="J79" t="s">
+        <v>518</v>
+      </c>
+      <c r="K79" t="s">
+        <v>519</v>
+      </c>
+      <c r="L79" t="s">
+        <v>520</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s">
+        <v>508</v>
+      </c>
+      <c r="O79" t="s">
+        <v>53</v>
+      </c>
+      <c r="P79" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q79" t="s"/>
+      <c r="R79" t="s"/>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>521</v>
+      </c>
+      <c r="X79" t="s">
+        <v>522</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>65365</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>524</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>525</v>
+      </c>
+      <c r="J80" t="s">
+        <v>526</v>
+      </c>
+      <c r="K80" t="s">
+        <v>527</v>
+      </c>
+      <c r="L80" t="s">
+        <v>528</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s">
+        <v>508</v>
+      </c>
+      <c r="O80" t="s">
+        <v>53</v>
+      </c>
+      <c r="P80" t="s"/>
+      <c r="Q80" t="s"/>
+      <c r="R80" t="s"/>
+      <c r="S80" t="s"/>
+      <c r="T80" t="s"/>
+      <c r="U80" t="s"/>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>521</v>
+      </c>
+      <c r="X80" t="s">
+        <v>522</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>65365</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>530</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>531</v>
+      </c>
+      <c r="J81" t="s">
+        <v>532</v>
+      </c>
+      <c r="K81" t="s">
+        <v>533</v>
+      </c>
+      <c r="L81" t="s">
+        <v>534</v>
+      </c>
+      <c r="M81" t="n">
+        <v>4</v>
+      </c>
+      <c r="N81" t="s">
+        <v>508</v>
+      </c>
+      <c r="O81" t="s">
+        <v>216</v>
+      </c>
+      <c r="P81" t="s"/>
+      <c r="Q81" t="s"/>
+      <c r="R81" t="n">
+        <v>4</v>
+      </c>
+      <c r="S81" t="s"/>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>535</v>
+      </c>
+      <c r="X81" t="s">
+        <v>536</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>65365</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>538</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>539</v>
+      </c>
+      <c r="J82" t="s">
+        <v>540</v>
+      </c>
+      <c r="K82" t="s">
+        <v>541</v>
+      </c>
+      <c r="L82" t="s">
+        <v>542</v>
+      </c>
+      <c r="M82" t="n">
+        <v>5</v>
+      </c>
+      <c r="N82" t="s">
+        <v>508</v>
+      </c>
+      <c r="O82" t="s">
+        <v>63</v>
+      </c>
+      <c r="P82" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>5</v>
+      </c>
+      <c r="R82" t="n">
+        <v>4</v>
+      </c>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s">
+        <v>543</v>
+      </c>
+      <c r="X82" t="s">
+        <v>544</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>65365</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>546</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>547</v>
+      </c>
+      <c r="J83" t="s">
+        <v>548</v>
+      </c>
+      <c r="K83" t="s">
+        <v>549</v>
+      </c>
+      <c r="L83" t="s">
+        <v>550</v>
+      </c>
+      <c r="M83" t="n">
+        <v>5</v>
+      </c>
+      <c r="N83" t="s">
+        <v>508</v>
+      </c>
+      <c r="O83" t="s">
+        <v>63</v>
+      </c>
+      <c r="P83" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>5</v>
+      </c>
+      <c r="R83" t="n">
+        <v>5</v>
+      </c>
+      <c r="S83" t="n">
+        <v>5</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s">
+        <v>551</v>
+      </c>
+      <c r="X83" t="s">
+        <v>552</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>65365</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>554</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>555</v>
+      </c>
+      <c r="J84" t="s">
+        <v>548</v>
+      </c>
+      <c r="K84" t="s">
+        <v>556</v>
+      </c>
+      <c r="L84" t="s">
+        <v>557</v>
+      </c>
+      <c r="M84" t="n">
+        <v>4</v>
+      </c>
+      <c r="N84" t="s">
+        <v>508</v>
+      </c>
+      <c r="O84" t="s">
+        <v>70</v>
+      </c>
+      <c r="P84" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>4</v>
+      </c>
+      <c r="R84" t="n">
+        <v>5</v>
+      </c>
+      <c r="S84" t="n">
+        <v>4</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s">
+        <v>551</v>
+      </c>
+      <c r="X84" t="s">
+        <v>552</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>65365</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>559</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>560</v>
+      </c>
+      <c r="J85" t="s">
+        <v>561</v>
+      </c>
+      <c r="K85" t="s">
+        <v>562</v>
+      </c>
+      <c r="L85" t="s">
+        <v>563</v>
+      </c>
+      <c r="M85" t="n">
+        <v>5</v>
+      </c>
+      <c r="N85" t="s">
+        <v>508</v>
+      </c>
+      <c r="O85" t="s">
+        <v>53</v>
+      </c>
+      <c r="P85" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>5</v>
+      </c>
+      <c r="R85" t="n">
+        <v>5</v>
+      </c>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s">
+        <v>551</v>
+      </c>
+      <c r="X85" t="s">
+        <v>552</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>65365</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>565</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>566</v>
+      </c>
+      <c r="J86" t="s">
+        <v>567</v>
+      </c>
+      <c r="K86" t="s">
+        <v>568</v>
+      </c>
+      <c r="L86" t="s">
+        <v>569</v>
+      </c>
+      <c r="M86" t="n">
+        <v>3</v>
+      </c>
+      <c r="N86" t="s">
+        <v>402</v>
+      </c>
+      <c r="O86" t="s">
+        <v>53</v>
+      </c>
+      <c r="P86" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>1</v>
+      </c>
+      <c r="R86" t="n">
+        <v>3</v>
+      </c>
+      <c r="S86" t="n">
+        <v>1</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>3</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s">
+        <v>570</v>
+      </c>
+      <c r="X86" t="s">
+        <v>571</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>65365</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>573</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>574</v>
+      </c>
+      <c r="J87" t="s">
+        <v>575</v>
+      </c>
+      <c r="K87" t="s">
+        <v>576</v>
+      </c>
+      <c r="L87" t="s">
+        <v>577</v>
+      </c>
+      <c r="M87" t="n">
+        <v>1</v>
+      </c>
+      <c r="N87" t="s">
+        <v>402</v>
+      </c>
+      <c r="O87" t="s">
+        <v>70</v>
+      </c>
+      <c r="P87" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>1</v>
+      </c>
+      <c r="R87" t="n">
+        <v>1</v>
+      </c>
+      <c r="S87" t="n">
+        <v>1</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>1</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s">
+        <v>578</v>
+      </c>
+      <c r="X87" t="s">
+        <v>579</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>65365</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>581</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>582</v>
+      </c>
+      <c r="J88" t="s">
+        <v>583</v>
+      </c>
+      <c r="K88" t="s">
+        <v>584</v>
+      </c>
+      <c r="L88" t="s">
+        <v>585</v>
+      </c>
+      <c r="M88" t="n">
+        <v>5</v>
+      </c>
+      <c r="N88" t="s">
+        <v>402</v>
+      </c>
+      <c r="O88" t="s">
+        <v>53</v>
+      </c>
+      <c r="P88" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>5</v>
+      </c>
+      <c r="R88" t="n">
+        <v>5</v>
+      </c>
+      <c r="S88" t="n">
+        <v>5</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>5</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s">
+        <v>578</v>
+      </c>
+      <c r="X88" t="s">
+        <v>579</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>65365</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>587</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>588</v>
+      </c>
+      <c r="J89" t="s">
+        <v>589</v>
+      </c>
+      <c r="K89" t="s">
+        <v>590</v>
+      </c>
+      <c r="L89" t="s">
+        <v>591</v>
+      </c>
+      <c r="M89" t="n">
+        <v>5</v>
+      </c>
+      <c r="N89" t="s">
+        <v>402</v>
+      </c>
+      <c r="O89" t="s">
+        <v>53</v>
+      </c>
+      <c r="P89" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>5</v>
+      </c>
+      <c r="R89" t="n">
+        <v>5</v>
+      </c>
+      <c r="S89" t="n">
+        <v>5</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>5</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s">
+        <v>578</v>
+      </c>
+      <c r="X89" t="s">
+        <v>579</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>65365</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>593</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>594</v>
+      </c>
+      <c r="J90" t="s">
+        <v>589</v>
+      </c>
+      <c r="K90" t="s">
+        <v>595</v>
+      </c>
+      <c r="L90" t="s">
+        <v>596</v>
+      </c>
+      <c r="M90" t="n">
+        <v>5</v>
+      </c>
+      <c r="N90" t="s">
+        <v>402</v>
+      </c>
+      <c r="O90" t="s">
+        <v>53</v>
+      </c>
+      <c r="P90" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>5</v>
+      </c>
+      <c r="R90" t="n">
+        <v>5</v>
+      </c>
+      <c r="S90" t="n">
+        <v>5</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>5</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s">
+        <v>578</v>
+      </c>
+      <c r="X90" t="s">
+        <v>579</v>
+      </c>
+      <c r="Y90" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>65365</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>598</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>599</v>
+      </c>
+      <c r="J91" t="s">
+        <v>600</v>
+      </c>
+      <c r="K91" t="s">
+        <v>601</v>
+      </c>
+      <c r="L91" t="s">
+        <v>602</v>
+      </c>
+      <c r="M91" t="n">
+        <v>4</v>
+      </c>
+      <c r="N91" t="s">
+        <v>402</v>
+      </c>
+      <c r="O91" t="s">
+        <v>53</v>
+      </c>
+      <c r="P91" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>5</v>
+      </c>
+      <c r="R91" t="n">
+        <v>4</v>
+      </c>
+      <c r="S91" t="n">
+        <v>5</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>5</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>65365</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>603</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>604</v>
+      </c>
+      <c r="J92" t="s">
+        <v>605</v>
+      </c>
+      <c r="K92" t="s">
+        <v>606</v>
+      </c>
+      <c r="L92" t="s">
+        <v>607</v>
+      </c>
+      <c r="M92" t="n">
+        <v>4</v>
+      </c>
+      <c r="N92" t="s">
+        <v>402</v>
+      </c>
+      <c r="O92" t="s">
+        <v>53</v>
+      </c>
+      <c r="P92" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>5</v>
+      </c>
+      <c r="R92" t="n">
+        <v>4</v>
+      </c>
+      <c r="S92" t="n">
+        <v>5</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>4</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>65365</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>608</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>609</v>
+      </c>
+      <c r="J93" t="s">
+        <v>610</v>
+      </c>
+      <c r="K93" t="s">
+        <v>611</v>
+      </c>
+      <c r="L93" t="s">
+        <v>612</v>
+      </c>
+      <c r="M93" t="n">
+        <v>5</v>
+      </c>
+      <c r="N93" t="s">
+        <v>613</v>
+      </c>
+      <c r="O93" t="s">
+        <v>53</v>
+      </c>
+      <c r="P93" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>5</v>
+      </c>
+      <c r="R93" t="n">
+        <v>5</v>
+      </c>
+      <c r="S93" t="n">
+        <v>5</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>5</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>65365</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>614</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>615</v>
+      </c>
+      <c r="J94" t="s">
+        <v>616</v>
+      </c>
+      <c r="K94" t="s">
+        <v>617</v>
+      </c>
+      <c r="L94" t="s">
+        <v>618</v>
+      </c>
+      <c r="M94" t="n">
+        <v>5</v>
+      </c>
+      <c r="N94" t="s">
+        <v>619</v>
+      </c>
+      <c r="O94" t="s">
+        <v>53</v>
+      </c>
+      <c r="P94" t="s"/>
+      <c r="Q94" t="s"/>
+      <c r="R94" t="n">
+        <v>5</v>
+      </c>
+      <c r="S94" t="s"/>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>5</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s">
+        <v>618</v>
       </c>
     </row>
   </sheetData>
